--- a/X2110-Camera/100x/bQD705-5/output-3.xlsx
+++ b/X2110-Camera/100x/bQD705-5/output-3.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU25"/>
+  <dimension ref="A1:CI29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,7 +377,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:73">
+    <row r="1" spans="1:87">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,5309 +594,7411 @@
       <c r="BU1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="BV1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:73">
+    <row r="2" spans="1:87">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>628.6253773978422</v>
+        <v>629.3131543499799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2042734081377771</v>
+        <v>0.4930579704625191</v>
       </c>
       <c r="D2" t="n">
-        <v>630.2233672991366</v>
+        <v>621.0361319515904</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2579967956584675</v>
+        <v>0.1999403812166983</v>
       </c>
       <c r="F2" t="n">
-        <v>636.2330374805887</v>
+        <v>628.516192344137</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2155483164279726</v>
+        <v>0.51559267805383</v>
       </c>
       <c r="H2" t="n">
-        <v>633.5031986899244</v>
+        <v>622.6101369060007</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2086570005176097</v>
+        <v>0.2372441863886313</v>
       </c>
       <c r="J2" t="n">
-        <v>635.5749275123019</v>
+        <v>628.5196096209372</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2202729192938891</v>
+        <v>0.2137492752846988</v>
       </c>
       <c r="L2" t="n">
-        <v>633.7748942501844</v>
+        <v>625.8228369515978</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4027070446611404</v>
+        <v>0.2345511075881233</v>
       </c>
       <c r="N2" t="n">
-        <v>631.2348468092783</v>
+        <v>627.8719025642123</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2433983741567055</v>
+        <v>0.2031527886231444</v>
       </c>
       <c r="P2" t="n">
-        <v>631.9467432222767</v>
+        <v>626.1144981078864</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4723528948067205</v>
+        <v>0.3740375284830867</v>
       </c>
       <c r="R2" t="n">
-        <v>630.3994884224721</v>
+        <v>623.6044915289052</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2431402801118906</v>
+        <v>0.2407689271734933</v>
       </c>
       <c r="T2" t="n">
-        <v>633.9527789443147</v>
+        <v>622.7813754011454</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9482827010216448</v>
+        <v>0.2258005108848564</v>
       </c>
       <c r="V2" t="n">
-        <v>632.0490068092231</v>
+        <v>623.7606885674074</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3399779149628263</v>
+        <v>0.6830025760364715</v>
       </c>
       <c r="X2" t="n">
-        <v>631.3848158916359</v>
+        <v>620.1507222166961</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.2175834830459226</v>
+        <v>0.6390617499437751</v>
       </c>
       <c r="Z2" t="n">
-        <v>632.5928777533762</v>
+        <v>624.3995923354444</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2895742806207582</v>
+        <v>0.3571427452295636</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.2326843877048</v>
+        <v>623.7503066157769</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.278061443266062</v>
+        <v>0.2023117252044227</v>
       </c>
       <c r="AD2" t="n">
-        <v>629.876864335389</v>
+        <v>624.9339510415246</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.2238852971797942</v>
+        <v>0.2955574205610275</v>
       </c>
       <c r="AF2" t="n">
-        <v>631.9151048475671</v>
+        <v>623.5985289915405</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.1962523753881436</v>
+        <v>0.2749532285994718</v>
       </c>
       <c r="AH2" t="n">
-        <v>633.6499133349532</v>
+        <v>622.2617913042009</v>
       </c>
       <c r="AI2" t="n">
-        <v>1</v>
+        <v>0.2083841292461632</v>
       </c>
       <c r="AJ2" t="n">
-        <v>631.7518893574032</v>
+        <v>623.1056678062635</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.313883043118012</v>
+        <v>0.4298917570121511</v>
       </c>
       <c r="AL2" t="n">
-        <v>631.6591131111014</v>
+        <v>624.2687315985812</v>
       </c>
       <c r="AM2" t="n">
-        <v>1</v>
+        <v>0.2021759306602331</v>
       </c>
       <c r="AN2" t="n">
-        <v>634.3255482802241</v>
+        <v>621.8978754078944</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.3137060670928261</v>
+        <v>0.3848227921628689</v>
       </c>
       <c r="AP2" t="n">
-        <v>619.0569762391278</v>
+        <v>624.1112806758747</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.2459076228426383</v>
+        <v>0.2997089115071638</v>
       </c>
       <c r="AR2" t="n">
-        <v>628.943066466573</v>
+        <v>625.3749279339148</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.547572603792753</v>
+        <v>0.4309541799994916</v>
       </c>
       <c r="AT2" t="n">
-        <v>630.705066886629</v>
+        <v>626.6400712572641</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.2529100742669209</v>
+        <v>0.3118995107136621</v>
       </c>
       <c r="AV2" t="n">
-        <v>630.2096306604496</v>
+        <v>587.1625727102647</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.4210132915321336</v>
+        <v>0.2244875738880057</v>
       </c>
       <c r="AX2" t="n">
-        <v>628.8909369710242</v>
+        <v>623.0789022725038</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.3715211201956609</v>
+        <v>0.2489929046627583</v>
       </c>
       <c r="AZ2" t="n">
-        <v>633.1073426416868</v>
+        <v>622.592543036163</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.2747401506148955</v>
+        <v>0.4167257311696565</v>
       </c>
       <c r="BB2" t="n">
-        <v>630.7511894168683</v>
+        <v>621.3033339030196</v>
       </c>
       <c r="BC2" t="n">
-        <v>1</v>
+        <v>0.3105444510526293</v>
       </c>
       <c r="BD2" t="n">
-        <v>635.8155410982223</v>
+        <v>625.4449691068098</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.4420931365684601</v>
+        <v>0.2512304287530711</v>
       </c>
       <c r="BF2" t="n">
-        <v>632.232677490416</v>
+        <v>627.9502688304432</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.3997376845578742</v>
+        <v>0.3457669016804773</v>
       </c>
       <c r="BH2" t="n">
-        <v>628.3858565023688</v>
+        <v>620.7983415854411</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.5235025398027876</v>
+        <v>0.5262061293602468</v>
       </c>
       <c r="BJ2" t="n">
-        <v>631.6331781469422</v>
+        <v>628.7085322750218</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.3184761090115884</v>
+        <v>0.4234774117515558</v>
       </c>
       <c r="BL2" t="n">
-        <v>630.8045437455035</v>
+        <v>625.5515186709445</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.6397834441635871</v>
+        <v>0.5285229160558976</v>
       </c>
       <c r="BN2" t="n">
-        <v>635.4031635528054</v>
+        <v>624.5942108916227</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.3291641631881682</v>
+        <v>0.5750417140884981</v>
       </c>
       <c r="BP2" t="n">
-        <v>635.7336367959043</v>
+        <v>623.992591128423</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.4106919007278302</v>
+        <v>0.3156397665172717</v>
       </c>
       <c r="BR2" t="n">
-        <v>633.7657990673312</v>
+        <v>623.1723294976359</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.825768928871072</v>
+        <v>0.6100840998819651</v>
       </c>
       <c r="BT2" t="n">
-        <v>633.5934577920902</v>
+        <v>627.7031163103887</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.9728365451003159</v>
+        <v>0.3107877978451147</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>627.0871090087783</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.6850615848424036</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>628.027659158173</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.3997887499306381</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>623.1232415683094</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.4429398306641505</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>625.2702275851723</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.337957798113963</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>622.2639479001303</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.4461919183182668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>624.0768219334257</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.4082063766625998</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>626.086012424856</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.7993317291488</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:87">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>632.4713500599102</v>
+        <v>633.1647758037262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2153545915106778</v>
+        <v>0.4373322535668516</v>
       </c>
       <c r="D3" t="n">
-        <v>634.0824163714251</v>
+        <v>624.8176444055293</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2804572808620871</v>
+        <v>0.1988551029908766</v>
       </c>
       <c r="F3" t="n">
-        <v>640.1397802546799</v>
+        <v>632.3612653679874</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2365184539894143</v>
+        <v>0.4783190052129927</v>
       </c>
       <c r="H3" t="n">
-        <v>637.3885638893663</v>
+        <v>626.4053452737588</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2058211979193671</v>
+        <v>0.2591889171819217</v>
       </c>
       <c r="J3" t="n">
-        <v>639.4765596628541</v>
+        <v>632.3647108137137</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2303520171660823</v>
+        <v>0.2069352956136125</v>
       </c>
       <c r="L3" t="n">
-        <v>637.6624083203849</v>
+        <v>629.6454649061758</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4128062833859131</v>
+        <v>0.2244113617529481</v>
       </c>
       <c r="N3" t="n">
-        <v>635.102086078762</v>
+        <v>631.711650736571</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2647907287778436</v>
+        <v>0.2073433751814271</v>
       </c>
       <c r="P3" t="n">
-        <v>635.8197069091747</v>
+        <v>629.9395802573371</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.4761777269957914</v>
+        <v>0.3789720587710927</v>
       </c>
       <c r="R3" t="n">
-        <v>634.2599684048288</v>
+        <v>627.4082626618671</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2491027439731399</v>
+        <v>0.2379091397753779</v>
       </c>
       <c r="T3" t="n">
-        <v>637.8416973709109</v>
+        <v>626.5780632795802</v>
       </c>
       <c r="U3" t="n">
-        <v>0.920260481091512</v>
+        <v>0.2317168440046385</v>
       </c>
       <c r="V3" t="n">
-        <v>635.9227901056969</v>
+        <v>627.5657985281853</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3561625306045553</v>
+        <v>0.6733903588466746</v>
       </c>
       <c r="X3" t="n">
-        <v>635.2532638127259</v>
+        <v>623.9244534269581</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.215079452660089</v>
+        <v>0.682023530690099</v>
       </c>
       <c r="Z3" t="n">
-        <v>636.4710086426854</v>
+        <v>628.2101610369034</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2955328350030313</v>
+        <v>0.3993119150190407</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.0999062187929</v>
+        <v>627.5553276410893</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3143440838695463</v>
+        <v>0.2128554390280162</v>
       </c>
       <c r="AD3" t="n">
-        <v>633.7330922697475</v>
+        <v>628.7490636670008</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.2436678848603694</v>
+        <v>0.2878509293122869</v>
       </c>
       <c r="AF3" t="n">
-        <v>635.7878148259697</v>
+        <v>627.4022489836892</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.2062384077908369</v>
+        <v>0.2830172111452025</v>
       </c>
       <c r="AH3" t="n">
-        <v>637.5364395029995</v>
+        <v>626.053983615014</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.9230096727211788</v>
+        <v>0.2122316403699505</v>
       </c>
       <c r="AJ3" t="n">
-        <v>635.6232894784632</v>
+        <v>626.9051519831861</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.3140187339605122</v>
+        <v>0.454102581874743</v>
       </c>
       <c r="AL3" t="n">
-        <v>635.5297679025585</v>
+        <v>628.0781845307808</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9764410378325415</v>
+        <v>0.1866172170749757</v>
       </c>
       <c r="AN3" t="n">
-        <v>638.2174030894217</v>
+        <v>625.686907761728</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.3002661876607982</v>
+        <v>0.3780714683525578</v>
       </c>
       <c r="AP3" t="n">
-        <v>622.8210179313919</v>
+        <v>627.9193895557956</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2748668734439763</v>
+        <v>0.2898458758366326</v>
       </c>
       <c r="AR3" t="n">
-        <v>632.791652244377</v>
+        <v>629.1937756642563</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.5788150706969701</v>
+        <v>0.4056760695401589</v>
       </c>
       <c r="AT3" t="n">
-        <v>634.5680247421562</v>
+        <v>630.4695612951538</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.2480162765966556</v>
+        <v>0.2928699870319332</v>
       </c>
       <c r="AV3" t="n">
-        <v>634.0685680427534</v>
+        <v>590.6020581385342</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.446393173869468</v>
+        <v>0.2435820735886833</v>
       </c>
       <c r="AX3" t="n">
-        <v>632.7390944230852</v>
+        <v>626.8781559338998</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.4125906450676743</v>
+        <v>0.2338420302396663</v>
       </c>
       <c r="AZ3" t="n">
-        <v>636.9895685146877</v>
+        <v>626.3875992757602</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.2959969318300503</v>
+        <v>0.4148454847661681</v>
       </c>
       <c r="BB3" t="n">
-        <v>634.6145207397475</v>
+        <v>625.0871836736183</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.8716160902062869</v>
+        <v>0.3129012682639485</v>
       </c>
       <c r="BD3" t="n">
-        <v>639.7190449152853</v>
+        <v>629.2644088671761</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.5397176891526311</v>
+        <v>0.2659684940328689</v>
       </c>
       <c r="BF3" t="n">
-        <v>636.1079311491503</v>
+        <v>631.7906661559726</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.3881653929306109</v>
+        <v>0.387530560589794</v>
       </c>
       <c r="BH3" t="n">
-        <v>632.2298545755764</v>
+        <v>624.5777697420438</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.537019819359758</v>
+        <v>0.4918647529956942</v>
       </c>
       <c r="BJ3" t="n">
-        <v>635.5036244867129</v>
+        <v>632.5551895659397</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.3578236582167558</v>
+        <v>0.4542426105719402</v>
       </c>
       <c r="BL3" t="n">
-        <v>634.668306920192</v>
+        <v>629.3718584100544</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.6474899684351321</v>
+        <v>0.5500750281596691</v>
       </c>
       <c r="BN3" t="n">
-        <v>639.3034573691314</v>
+        <v>628.4064368055887</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.3591682823539476</v>
+        <v>0.5733227702036028</v>
       </c>
       <c r="BP3" t="n">
-        <v>639.6365039109514</v>
+        <v>627.7996857046875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.417272427520796</v>
+        <v>0.348577520490389</v>
       </c>
       <c r="BR3" t="n">
-        <v>637.6532412790087</v>
+        <v>626.9723875750435</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.8335056608005041</v>
+        <v>0.7056201061472195</v>
       </c>
       <c r="BT3" t="n">
-        <v>637.4795373843294</v>
+        <v>631.5414649325598</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.879877469722145</v>
+        <v>0.3442005310402789</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>630.9203335764041</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.6576845776691936</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>631.8686971496147</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.4008747513862068</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>626.9228770704037</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.4259196193662886</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>629.0881897004863</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0.3327466684991007</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>626.056158909402</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.4897083774296649</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>627.8846364341524</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.4615930070371358</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>629.9108551350153</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.7075868708312819</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:87">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636.3485111382344</v>
+        <v>637.047457771949</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2110818190983985</v>
+        <v>0.4585548844215882</v>
       </c>
       <c r="D4" t="n">
-        <v>637.9723569828813</v>
+        <v>628.6317696861098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.282088739488155</v>
+        <v>0.2042734081377771</v>
       </c>
       <c r="F4" t="n">
-        <v>644.0763069930842</v>
+        <v>636.2375471301533</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2438218627235912</v>
+        <v>0.5433924279451875</v>
       </c>
       <c r="H4" t="n">
-        <v>641.3042144484077</v>
+        <v>630.2328690184905</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2047289008131482</v>
+        <v>0.2579967956584675</v>
       </c>
       <c r="J4" t="n">
-        <v>643.4080963992768</v>
+        <v>636.2410201086923</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2446263792241952</v>
+        <v>0.2155483164279726</v>
       </c>
       <c r="L4" t="n">
-        <v>641.580157721514</v>
+        <v>633.4998044455303</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4030614383576763</v>
+        <v>0.2086570005176097</v>
       </c>
       <c r="N4" t="n">
-        <v>639.0000294980978</v>
+        <v>635.5827276642104</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2693423044719794</v>
+        <v>0.2202729192938891</v>
       </c>
       <c r="P4" t="n">
-        <v>639.7232430988601</v>
+        <v>633.796319393791</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4679834288260927</v>
+        <v>0.4027070446611404</v>
       </c>
       <c r="R4" t="n">
-        <v>638.1513072686487</v>
+        <v>631.2441618208286</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2518736354490634</v>
+        <v>0.2433983741567055</v>
       </c>
       <c r="T4" t="n">
-        <v>641.7608183888309</v>
+        <v>630.4070342405506</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9301438666361045</v>
+        <v>0.2431402801118906</v>
       </c>
       <c r="V4" t="n">
-        <v>639.8271270101328</v>
+        <v>631.4030071240054</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3944385217819353</v>
+        <v>0.6452864587375766</v>
       </c>
       <c r="X4" t="n">
-        <v>639.1523881342596</v>
+        <v>627.7309652685645</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.222816914426399</v>
+        <v>0.7008856044781857</v>
       </c>
       <c r="Z4" t="n">
-        <v>640.3795927192018</v>
+        <v>632.0527082624983</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3072857129670084</v>
+        <v>0.3399779149628263</v>
       </c>
       <c r="AB4" t="n">
-        <v>638.9978325999193</v>
+        <v>631.3924492546475</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3120713615076645</v>
+        <v>0.2175834830459226</v>
       </c>
       <c r="AD4" t="n">
-        <v>637.6202760304157</v>
+        <v>632.5960544934642</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2467886048301764</v>
+        <v>0.2895742806207582</v>
       </c>
       <c r="AF4" t="n">
-        <v>639.6911031536757</v>
+        <v>631.2380981239919</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.2226202863599773</v>
+        <v>0.278061443266062</v>
       </c>
       <c r="AH4" t="n">
-        <v>641.45322401185</v>
+        <v>629.8785570379712</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.8736085272918553</v>
+        <v>0.2238852971797942</v>
       </c>
       <c r="AJ4" t="n">
-        <v>639.5252981159141</v>
+        <v>630.7368581182175</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.3183398243555189</v>
+        <v>0.4829737316777262</v>
       </c>
       <c r="AL4" t="n">
-        <v>639.4310483628454</v>
+        <v>631.9196405740945</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.99007094143119</v>
+        <v>0.1962523753881436</v>
       </c>
       <c r="AN4" t="n">
-        <v>642.1393919207826</v>
+        <v>629.5083899578952</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.3175208472230907</v>
+        <v>0.4104748802370458</v>
       </c>
       <c r="AP4" t="n">
-        <v>626.6180480316954</v>
+        <v>631.7595311394472</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.2821182946779091</v>
+        <v>0.313883043118012</v>
       </c>
       <c r="AR4" t="n">
-        <v>636.6713673360024</v>
+        <v>633.0444188955573</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.5637282260389243</v>
+        <v>0.4327712567080433</v>
       </c>
       <c r="AT4" t="n">
-        <v>638.4617848456137</v>
+        <v>634.330610024484</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.2338414717764479</v>
+        <v>0.3137060670928261</v>
       </c>
       <c r="AV4" t="n">
-        <v>637.9583995118928</v>
+        <v>594.0808679383831</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.4662208246790179</v>
+        <v>0.2459076228426383</v>
       </c>
       <c r="AX4" t="n">
-        <v>636.6183908842725</v>
+        <v>630.7096365965916</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.4215074619335599</v>
+        <v>0.2529100742669209</v>
       </c>
       <c r="AZ4" t="n">
-        <v>640.9021526886495</v>
+        <v>630.2149742111418</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.2766558716454048</v>
+        <v>0.4210132915321336</v>
       </c>
       <c r="BB4" t="n">
-        <v>638.5086457657691</v>
+        <v>628.9035956989087</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.8022308409581964</v>
+        <v>0.3715211201956609</v>
       </c>
       <c r="BD4" t="n">
-        <v>643.6524091987986</v>
+        <v>633.1156310006568</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.6243923397945219</v>
+        <v>0.2747401506148955</v>
       </c>
       <c r="BF4" t="n">
-        <v>640.0137044899514</v>
+        <v>635.6623776298461</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.3823125116121345</v>
+        <v>0.4420931365684601</v>
       </c>
       <c r="BH4" t="n">
-        <v>636.1050856521736</v>
+        <v>628.3898557573783</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.5231341338732635</v>
+        <v>0.5235025398027876</v>
       </c>
       <c r="BJ4" t="n">
-        <v>639.4047012907602</v>
+        <v>636.4330197991558</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.3800830281647429</v>
+        <v>0.4382528623035953</v>
       </c>
       <c r="BL4" t="n">
-        <v>638.5628539144982</v>
+        <v>633.2239605556118</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.6604371432461147</v>
+        <v>0.4590693100752468</v>
       </c>
       <c r="BN4" t="n">
-        <v>643.2336872794967</v>
+        <v>632.25060469098</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.3495777681198303</v>
+        <v>0.5796674212302926</v>
       </c>
       <c r="BP4" t="n">
-        <v>643.5692465081839</v>
+        <v>631.6388352991831</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.4240085600646797</v>
+        <v>0.3184761090115884</v>
       </c>
       <c r="BR4" t="n">
-        <v>641.5709204959022</v>
+        <v>630.8046550514515</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8002778361393947</v>
+        <v>0.6397834441635871</v>
       </c>
       <c r="BT4" t="n">
-        <v>641.3958857131885</v>
+        <v>635.4111737791402</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.9513980571146512</v>
+        <v>0.3291641631881682</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>634.7850333182305</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.6479228179333368</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>635.7410348668315</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>0.4106919007278302</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>630.754731219511</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>0.4434929883663205</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>632.9379669446431</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>0.3216757560533627</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>629.8807506236903</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0.4966595867020686</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>631.724490116483</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0.4142936926370092</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>633.7673601630139</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0.825768928871072</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:87">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>640.2561478328147</v>
+        <v>640.9604874546482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2187285372937768</v>
+        <v>0.5060626480454221</v>
       </c>
       <c r="D5" t="n">
-        <v>641.892476333505</v>
+        <v>632.4777949933318</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2880677456429459</v>
+        <v>0.2153545915106778</v>
       </c>
       <c r="F5" t="n">
-        <v>648.041904895802</v>
+        <v>640.1443248306347</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2769803070429023</v>
+        <v>0.5253976082507743</v>
       </c>
       <c r="H5" t="n">
-        <v>645.2494375670486</v>
+        <v>634.0919953401957</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2105216917137627</v>
+        <v>0.2804572808620871</v>
       </c>
       <c r="J5" t="n">
-        <v>647.36882492157</v>
+        <v>640.1478247058726</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2982514054513559</v>
+        <v>0.2365184539894143</v>
       </c>
       <c r="L5" t="n">
-        <v>645.5274296535714</v>
+        <v>637.3851427696616</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4564991951723927</v>
+        <v>0.2058211979193671</v>
       </c>
       <c r="N5" t="n">
-        <v>642.9279642672853</v>
+        <v>639.4844205471306</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2773677552467394</v>
+        <v>0.2303520171660823</v>
       </c>
       <c r="P5" t="n">
-        <v>643.6566389913329</v>
+        <v>637.6840027172482</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4877300191674166</v>
+        <v>0.4128062833859131</v>
       </c>
       <c r="R5" t="n">
-        <v>642.0727922139318</v>
+        <v>635.1114762057898</v>
       </c>
       <c r="S5" t="n">
-        <v>0.262984968258577</v>
+        <v>0.2647907287778436</v>
       </c>
       <c r="T5" t="n">
-        <v>645.7094291980746</v>
+        <v>634.2675754840564</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8794724523057037</v>
+        <v>0.2491027439731399</v>
       </c>
       <c r="V5" t="n">
-        <v>643.7613047225311</v>
+        <v>635.2716015548679</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4051900217185042</v>
+        <v>0.6282528174353682</v>
       </c>
       <c r="X5" t="n">
-        <v>643.0814760562369</v>
+        <v>631.5695449415157</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.2235616596347753</v>
+        <v>0.7022238211689822</v>
       </c>
       <c r="Z5" t="n">
-        <v>644.3179171829255</v>
+        <v>635.9265212122293</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3114795766879339</v>
+        <v>0.3561625306045553</v>
       </c>
       <c r="AB5" t="n">
-        <v>642.925750731084</v>
+        <v>635.2609586564516</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3206478009413366</v>
+        <v>0.215079452660089</v>
       </c>
       <c r="AD5" t="n">
-        <v>641.5377028173932</v>
+        <v>636.4742107209148</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.2967060380855457</v>
+        <v>0.2955328350030313</v>
       </c>
       <c r="AF5" t="n">
-        <v>643.6242570306852</v>
+        <v>635.1053636124487</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.2523007036625444</v>
+        <v>0.3143440838695463</v>
       </c>
       <c r="AH5" t="n">
-        <v>645.3995540615049</v>
+        <v>633.7347987730726</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.7493403552210708</v>
+        <v>0.2436678848603694</v>
       </c>
       <c r="AJ5" t="n">
-        <v>643.4572024697559</v>
+        <v>634.6000734113575</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.355057274673407</v>
+        <v>0.4438942422981658</v>
       </c>
       <c r="AL5" t="n">
-        <v>643.3622416919623</v>
+        <v>635.7923869285221</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.8890108615284773</v>
+        <v>0.2062384077908369</v>
       </c>
       <c r="AN5" t="n">
-        <v>646.0908019743066</v>
+        <v>633.3616091963961</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.3096836675344569</v>
+        <v>0.3829791660321369</v>
       </c>
       <c r="AP5" t="n">
-        <v>630.4473537400384</v>
+        <v>635.6309926268291</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.3062443496014697</v>
+        <v>0.3140187339605122</v>
       </c>
       <c r="AR5" t="n">
-        <v>640.5814989414492</v>
+        <v>636.9261448278177</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.6087550371815467</v>
+        <v>0.4119613681121772</v>
       </c>
       <c r="AT5" t="n">
-        <v>642.3856343970015</v>
+        <v>638.222504645255</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.2646494209915403</v>
+        <v>0.3002661876607982</v>
       </c>
       <c r="AV5" t="n">
-        <v>641.8784122678679</v>
+        <v>597.5982893098115</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.4385768558436982</v>
+        <v>0.2748668734439763</v>
       </c>
       <c r="AX5" t="n">
-        <v>640.5281135545857</v>
+        <v>634.572631460579</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.4660823422760482</v>
+        <v>0.2480162765966556</v>
       </c>
       <c r="AZ5" t="n">
-        <v>644.8443823635725</v>
+        <v>634.0739550423075</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.2872156026477484</v>
+        <v>0.446393173869468</v>
       </c>
       <c r="BB5" t="n">
-        <v>642.432851694933</v>
+        <v>632.7518571788909</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.7261406515942088</v>
+        <v>0.4125906450676743</v>
       </c>
       <c r="BD5" t="n">
-        <v>647.6149211487623</v>
+        <v>636.997922707252</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.7048896436300366</v>
+        <v>0.2959969318300503</v>
       </c>
       <c r="BF5" t="n">
-        <v>643.949284712819</v>
+        <v>639.5646904520635</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.3970406145598491</v>
+        <v>0.5397176891526311</v>
       </c>
       <c r="BH5" t="n">
-        <v>640.0108369321605</v>
+        <v>632.233886831445</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.5075654223866304</v>
+        <v>0.537019819359758</v>
       </c>
       <c r="BJ5" t="n">
-        <v>643.335695759084</v>
+        <v>640.3413101746698</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.4028645344253175</v>
+        <v>0.4575526702964747</v>
       </c>
       <c r="BL5" t="n">
-        <v>642.4874719284222</v>
+        <v>637.1071123076166</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.6489352734241777</v>
+        <v>0.4757469705853611</v>
       </c>
       <c r="BN5" t="n">
-        <v>647.1931404839016</v>
+        <v>636.1260017477967</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.3668015408009978</v>
+        <v>0.6111480592341959</v>
       </c>
       <c r="BP5" t="n">
-        <v>647.5311517876017</v>
+        <v>635.5093271119101</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.4716792947416549</v>
+        <v>0.3578236582167558</v>
       </c>
       <c r="BR5" t="n">
-        <v>645.5181239180118</v>
+        <v>634.6684191268598</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.857550640972753</v>
+        <v>0.6474899684351321</v>
       </c>
       <c r="BT5" t="n">
-        <v>645.3417899786673</v>
+        <v>639.3115300501297</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.9683884040597159</v>
+        <v>0.3591682823539476</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>638.6804954342571</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.6821389175571511</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>639.6439595098232</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0.417272427520796</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>634.6180912156311</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>0.4039839924942044</v>
+      </c>
+      <c r="CB5" t="n">
+        <v>636.8188465176428</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0.3600756778140554</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>633.7370102429951</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0.5207733442594731</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>635.5956701804173</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0.4601989352258791</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>637.6548147088519</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0.8335056608005041</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:87">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>644.1935473436513</v>
+        <v>644.9031520518238</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2429054986240446</v>
+        <v>0.4768503982711065</v>
       </c>
       <c r="D6" t="n">
-        <v>645.8420616232964</v>
+        <v>636.3550075271955</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3213586125397825</v>
+        <v>0.2110818190983985</v>
       </c>
       <c r="F6" t="n">
-        <v>652.0358611628328</v>
+        <v>644.0808856694316</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3346426075841792</v>
+        <v>0.5567070067443881</v>
       </c>
       <c r="H6" t="n">
-        <v>649.2235204452892</v>
+        <v>637.9820114388742</v>
       </c>
       <c r="I6" t="n">
-        <v>0.219787740471016</v>
+        <v>0.282088739488155</v>
       </c>
       <c r="J6" t="n">
-        <v>651.3580324297335</v>
+        <v>644.0844118052551</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3213055393926547</v>
+        <v>0.2438218627235912</v>
       </c>
       <c r="L6" t="n">
-        <v>649.5035113165575</v>
+        <v>641.3007670785694</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4938579364661616</v>
+        <v>0.2047289008131482</v>
       </c>
       <c r="N6" t="n">
-        <v>646.8851775863249</v>
+        <v>643.4160165853316</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3229994154208475</v>
+        <v>0.2446263792241952</v>
       </c>
       <c r="P6" t="n">
-        <v>647.6191817865933</v>
+        <v>641.6019174277087</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.5085809197273965</v>
+        <v>0.4030614383576763</v>
       </c>
       <c r="R6" t="n">
-        <v>646.0237104406783</v>
+        <v>639.0094930167506</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2852496364419228</v>
+        <v>0.2693423044719794</v>
       </c>
       <c r="T6" t="n">
-        <v>649.6868169986421</v>
+        <v>638.1589742100977</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9247123624392785</v>
+        <v>0.2518736354490634</v>
       </c>
       <c r="V6" t="n">
-        <v>647.7246104428916</v>
+        <v>639.1708690207726</v>
       </c>
       <c r="W6" t="n">
-        <v>0.4416643275657879</v>
+        <v>0.644671158485719</v>
       </c>
       <c r="X6" t="n">
-        <v>647.0398147786577</v>
+        <v>635.4394796458113</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2741849778735369</v>
+        <v>0.7149085392747857</v>
       </c>
       <c r="Z6" t="n">
-        <v>648.2852692338564</v>
+        <v>639.8308870860963</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3307047198529271</v>
+        <v>0.3944385217819353</v>
       </c>
       <c r="AB6" t="n">
-        <v>646.8829478122869</v>
+        <v>639.1601430465017</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3599864437634122</v>
+        <v>0.222816914426399</v>
       </c>
       <c r="AD6" t="n">
-        <v>645.4846598306804</v>
+        <v>640.3828195493526</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3234324170597106</v>
+        <v>0.3072857129670084</v>
       </c>
       <c r="AF6" t="n">
-        <v>647.5865636569981</v>
+        <v>639.0033326490596</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.2527668152763447</v>
+        <v>0.3120713615076645</v>
       </c>
       <c r="AH6" t="n">
-        <v>649.374716851964</v>
+        <v>637.621996020318</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.6876017695882809</v>
+        <v>0.2467886048301764</v>
       </c>
       <c r="AJ6" t="n">
-        <v>647.4182897399886</v>
+        <v>638.4940850626062</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.3714146908811885</v>
+        <v>0.4431258713346949</v>
       </c>
       <c r="AL6" t="n">
-        <v>647.322635089909</v>
+        <v>639.6957107940636</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9901386457303677</v>
+        <v>0.2226202863599773</v>
       </c>
       <c r="AN6" t="n">
-        <v>650.0709204499938</v>
+        <v>637.2458526772306</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.3291992497833257</v>
+        <v>0.3753741912465355</v>
       </c>
       <c r="AP6" t="n">
-        <v>634.3082222564208</v>
+        <v>639.5330612179416</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.3426578350081854</v>
+        <v>0.3183398243555189</v>
       </c>
       <c r="AR6" t="n">
-        <v>644.5213342607174</v>
+        <v>640.8382406610375</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.5814181178653633</v>
+        <v>0.4532566164554888</v>
       </c>
       <c r="AT6" t="n">
-        <v>646.3388605963194</v>
+        <v>642.1445323574665</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.256050126789766</v>
+        <v>0.3175208472230907</v>
       </c>
       <c r="AV6" t="n">
-        <v>645.8278935106788</v>
+        <v>601.1536094528193</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.4657184597038564</v>
+        <v>0.2821182946779091</v>
       </c>
       <c r="AX6" t="n">
-        <v>644.4675496340252</v>
+        <v>638.4664277258621</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.4843138495913998</v>
+        <v>0.2338414717764479</v>
       </c>
       <c r="AZ6" t="n">
-        <v>648.8155447394566</v>
+        <v>637.9638289692575</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.3575038870110615</v>
+        <v>0.4662208246790179</v>
       </c>
       <c r="BB6" t="n">
-        <v>646.3864257272394</v>
+        <v>636.6312553135648</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.7025212394056817</v>
+        <v>0.4215074619335599</v>
       </c>
       <c r="BD6" t="n">
-        <v>651.6058679651762</v>
+        <v>640.9105711869616</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.7501122979060499</v>
+        <v>0.2766558716454048</v>
       </c>
       <c r="BF6" t="n">
-        <v>647.9139590177533</v>
+        <v>643.4968918226248</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.4043591443777217</v>
+        <v>0.6243923397945219</v>
       </c>
       <c r="BH6" t="n">
-        <v>643.9463956155371</v>
+        <v>636.1091501642438</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.5206478598517021</v>
+        <v>0.5231341338732635</v>
       </c>
       <c r="BJ6" t="n">
-        <v>647.2958950916848</v>
+        <v>644.2793478924818</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.4332369063329367</v>
+        <v>0.4340596355033103</v>
       </c>
       <c r="BL6" t="n">
-        <v>646.4414481619641</v>
+        <v>641.0206008660688</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.736512211912685</v>
+        <v>0.4793163050913711</v>
       </c>
       <c r="BN6" t="n">
-        <v>651.1811041823457</v>
+        <v>640.0319151760388</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.3948935037417205</v>
+        <v>0.590381349531147</v>
       </c>
       <c r="BP6" t="n">
-        <v>651.5215069492049</v>
+        <v>639.4104483428681</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.5102450436601821</v>
+        <v>0.3800830281647429</v>
       </c>
       <c r="BR6" t="n">
-        <v>649.4941387453375</v>
+        <v>638.5629670012684</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.8440688731719223</v>
+        <v>0.6604371432461147</v>
       </c>
       <c r="BT6" t="n">
-        <v>649.316537380766</v>
+        <v>643.2418209455285</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.9768275392257186</v>
+        <v>0.3495777681198303</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>642.6060071244841</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.6636537836895633</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>643.5767582785899</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>0.4240085600646797</v>
+      </c>
+      <c r="BZ6" t="n">
+        <v>638.5122442587642</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>0.4599877636099476</v>
+      </c>
+      <c r="CB6" t="n">
+        <v>640.7301156194854</v>
+      </c>
+      <c r="CC6" t="n">
+        <v>0.3419955674790172</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>637.6242249673164</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0.518929838764381</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>639.4974638259553</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0.429041256196886</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>641.5725059725293</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0.8002778361393947</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:87">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>648.159996870744</v>
+        <v>648.8747387634759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2817591729055131</v>
+        <v>0.5423802739588235</v>
       </c>
       <c r="D7" t="n">
-        <v>649.8204000522555</v>
+        <v>640.2626944877007</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3464297887609749</v>
+        <v>0.2187285372937768</v>
       </c>
       <c r="F7" t="n">
-        <v>656.0574629941769</v>
+        <v>648.0465168465441</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4143924947301478</v>
+        <v>0.4919813765355817</v>
       </c>
       <c r="H7" t="n">
-        <v>653.2257502831292</v>
+        <v>641.9022045145264</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2455229615712135</v>
+        <v>0.2880677456429459</v>
       </c>
       <c r="J7" t="n">
-        <v>655.3750061237677</v>
+        <v>648.0500686068394</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3959209464706353</v>
+        <v>0.2769803070429023</v>
       </c>
       <c r="L7" t="n">
-        <v>653.507689910472</v>
+        <v>645.2459645722538</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4934735633657415</v>
+        <v>0.2105216917137627</v>
       </c>
       <c r="N7" t="n">
-        <v>650.8709566552163</v>
+        <v>647.3768029788132</v>
       </c>
       <c r="O7" t="n">
-        <v>0.377384335256178</v>
+        <v>0.2982514054513559</v>
       </c>
       <c r="P7" t="n">
-        <v>651.6101586846412</v>
+        <v>645.5493507251725</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.56365517191957</v>
+        <v>0.4564991951723927</v>
       </c>
       <c r="R7" t="n">
-        <v>650.0033491488881</v>
+        <v>642.9374994537112</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3038504491161867</v>
+        <v>0.2773677552467394</v>
       </c>
       <c r="T7" t="n">
-        <v>653.6922689905334</v>
+        <v>642.0805176186744</v>
       </c>
       <c r="U7" t="n">
-        <v>0.9267015486539354</v>
+        <v>0.262984968258577</v>
       </c>
       <c r="V7" t="n">
-        <v>651.7163313712143</v>
+        <v>643.1000967217195</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4991813779969295</v>
+        <v>0.6188770463804059</v>
       </c>
       <c r="X7" t="n">
-        <v>651.0266915015222</v>
+        <v>639.3400565814516</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.2720941651145654</v>
+        <v>0.7206758822185015</v>
       </c>
       <c r="Z7" t="n">
-        <v>652.2809360719946</v>
+        <v>643.7650930840991</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3980524313099861</v>
+        <v>0.4051900217185042</v>
       </c>
       <c r="AB7" t="n">
-        <v>650.8687110435282</v>
+        <v>643.0892896247977</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.378552765568381</v>
+        <v>0.2235616596347753</v>
       </c>
       <c r="AD7" t="n">
-        <v>649.460434270277</v>
+        <v>644.3211681787775</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3757155521155167</v>
+        <v>0.3114795766879339</v>
       </c>
       <c r="AF7" t="n">
-        <v>651.5773102326146</v>
+        <v>642.9312924338246</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.3057521832246345</v>
+        <v>0.3206478009413366</v>
       </c>
       <c r="AH7" t="n">
-        <v>653.3779995832274</v>
+        <v>641.5394359797076</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.627760296796584</v>
+        <v>0.2967060380855457</v>
       </c>
       <c r="AJ7" t="n">
-        <v>651.4078471266123</v>
+        <v>642.4181802719637</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.4200905465354706</v>
+        <v>0.4511083374255307</v>
       </c>
       <c r="AL7" t="n">
-        <v>651.3115157566856</v>
+        <v>643.6288993707192</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.8565043914676804</v>
+        <v>0.2523007036625444</v>
       </c>
       <c r="AN7" t="n">
-        <v>654.0790345478441</v>
+        <v>641.1604076003988</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.3907862092458811</v>
+        <v>0.4397021263635137</v>
       </c>
       <c r="AP7" t="n">
-        <v>638.1999407808427</v>
+        <v>643.4650241127846</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.3806119696053691</v>
+        <v>0.355057274673407</v>
       </c>
       <c r="AR7" t="n">
-        <v>648.490160493807</v>
+        <v>644.7799935952168</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.6163681337937618</v>
+        <v>0.4892043557254678</v>
       </c>
       <c r="AT7" t="n">
-        <v>650.3207506435676</v>
+        <v>646.0959803611187</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.282907755403535</v>
+        <v>0.3096836675344569</v>
       </c>
       <c r="AV7" t="n">
-        <v>649.8061304403253</v>
+        <v>604.7461155674066</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.4431937146659576</v>
+        <v>0.3062443496014697</v>
       </c>
       <c r="AX7" t="n">
-        <v>648.4359863225908</v>
+        <v>642.3903125924409</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.5114539640435456</v>
+        <v>0.2646494209915403</v>
       </c>
       <c r="AZ7" t="n">
-        <v>652.8149270163019</v>
+        <v>641.8838831919918</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.397726082672296</v>
+        <v>0.4385768558436982</v>
       </c>
       <c r="BB7" t="n">
-        <v>650.3686550626882</v>
+        <v>640.5410773029304</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.5979406206251435</v>
+        <v>0.4660823422760482</v>
       </c>
       <c r="BD7" t="n">
-        <v>655.6245368480404</v>
+        <v>644.8528636397857</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.7948911725051431</v>
+        <v>0.2872156026477484</v>
       </c>
       <c r="BF7" t="n">
-        <v>651.9070146047543</v>
+        <v>647.4582689415299</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.4085119674305671</v>
+        <v>0.7048896436300366</v>
       </c>
       <c r="BH7" t="n">
-        <v>647.9110489023033</v>
+        <v>640.0149329557746</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.5613726294968824</v>
+        <v>0.5075654223866304</v>
       </c>
       <c r="BJ7" t="n">
-        <v>651.2845864885621</v>
+        <v>648.246420152592</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.4998959324564834</v>
+        <v>0.4599691942080295</v>
       </c>
       <c r="BL7" t="n">
-        <v>650.4240698151237</v>
+        <v>644.9637134309683</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.6822611915632399</v>
+        <v>0.5176483011618757</v>
       </c>
       <c r="BN7" t="n">
-        <v>655.1968655748293</v>
+        <v>643.9676321757062</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.445557504049832</v>
+        <v>0.6497833150495299</v>
       </c>
       <c r="BP7" t="n">
-        <v>655.5395991929934</v>
+        <v>643.3414861920573</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.5239733746493497</v>
+        <v>0.4028645344253175</v>
       </c>
       <c r="BR7" t="n">
-        <v>653.4982521778791</v>
+        <v>642.4875858746772</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.8234216384546671</v>
+        <v>0.6489352734241777</v>
       </c>
       <c r="BT7" t="n">
-        <v>653.3194151194846</v>
+        <v>647.2013336653364</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.9571491801091629</v>
+        <v>0.3668015408009978</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>646.5608555889115</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.6781948657054973</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>647.5387183731315</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0.4716792947416549</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>642.4364775489103</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>0.4798845285573964</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>644.6710614501709</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>0.3844651625906018</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>641.5416819966542</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0.4725231365007775</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>643.4291582530971</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0.4375930834263821</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>645.519721154046</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0.857550640972753</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:87">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>652.1547836140929</v>
+        <v>652.8745347896044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.30513371203241</v>
+        <v>0.5304827639546209</v>
       </c>
       <c r="D8" t="n">
-        <v>653.8267788203823</v>
+        <v>644.2001430748476</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4063555923372665</v>
+        <v>0.2429054986240446</v>
       </c>
       <c r="F8" t="n">
-        <v>660.1059975898344</v>
+        <v>652.0405055619722</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5013768591509745</v>
+        <v>0.5432145763014873</v>
       </c>
       <c r="H8" t="n">
-        <v>657.2554142805687</v>
+        <v>645.8518617671519</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2723160969591089</v>
+        <v>0.3213586125397825</v>
       </c>
       <c r="J8" t="n">
-        <v>659.4190332036721</v>
+        <v>652.0440823106256</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4959307343388701</v>
+        <v>0.3346426075841792</v>
       </c>
       <c r="L8" t="n">
-        <v>657.5392526353149</v>
+        <v>649.220022450715</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6539350063503275</v>
+        <v>0.219787740471016</v>
       </c>
       <c r="N8" t="n">
-        <v>654.8845886739598</v>
+        <v>651.3660669275756</v>
       </c>
       <c r="O8" t="n">
-        <v>0.374020499205912</v>
+        <v>0.3213055393926547</v>
       </c>
       <c r="P8" t="n">
-        <v>655.6288568854766</v>
+        <v>649.5255898096395</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.635075797774555</v>
+        <v>0.4938579364661616</v>
       </c>
       <c r="R8" t="n">
-        <v>654.0109955385611</v>
+        <v>646.8947827166716</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3761981624631667</v>
+        <v>0.3229994154208475</v>
       </c>
       <c r="T8" t="n">
-        <v>657.7250723737484</v>
+        <v>646.0314929097866</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8915550283905513</v>
+        <v>0.2852496364419228</v>
       </c>
       <c r="V8" t="n">
-        <v>655.7357547074994</v>
+        <v>647.0585718577088</v>
       </c>
       <c r="W8" t="n">
-        <v>0.5177960788946124</v>
+        <v>0.6112230783091246</v>
       </c>
       <c r="X8" t="n">
-        <v>655.0413934248304</v>
+        <v>643.2705629484363</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3054379628673074</v>
+        <v>0.6710103955963009</v>
       </c>
       <c r="Z8" t="n">
-        <v>656.30420489734</v>
+        <v>647.728426406238</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.5216259874108859</v>
+        <v>0.4416643275657879</v>
       </c>
       <c r="AB8" t="n">
-        <v>654.8823276248077</v>
+        <v>647.0476855913396</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.4626838397872489</v>
+        <v>0.2741849778735369</v>
       </c>
       <c r="AD8" t="n">
-        <v>653.4643133361831</v>
+        <v>648.2885438091895</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.420856652862312</v>
+        <v>0.3307047198529271</v>
       </c>
       <c r="AF8" t="n">
-        <v>655.5957839575345</v>
+        <v>646.8885301667439</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.3844584066567572</v>
+        <v>0.3599864437634122</v>
       </c>
       <c r="AH8" t="n">
-        <v>657.4086894552951</v>
+        <v>645.4864058512412</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.5896654378124405</v>
+        <v>0.3234324170597106</v>
       </c>
       <c r="AJ8" t="n">
-        <v>655.4251618296269</v>
+        <v>646.3716462394298</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.5099877245528287</v>
+        <v>0.4604351156438747</v>
       </c>
       <c r="AL8" t="n">
-        <v>655.328170892292</v>
+        <v>647.5912398584887</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.922500628220885</v>
+        <v>0.2527668152763447</v>
       </c>
       <c r="AN8" t="n">
-        <v>658.1144314678576</v>
+        <v>645.1045611659007</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.4536592031395008</v>
+        <v>0.3897170559415913</v>
       </c>
       <c r="AP8" t="n">
-        <v>642.1217965133039</v>
+        <v>647.426168511358</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.4535695129384582</v>
+        <v>0.3714146908811885</v>
       </c>
       <c r="AR8" t="n">
-        <v>652.487264840718</v>
+        <v>648.7506908303554</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.6055685999635581</v>
+        <v>0.479759084507104</v>
       </c>
       <c r="AT8" t="n">
-        <v>654.3305917387461</v>
+        <v>650.0761358562115</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.3558774592703467</v>
+        <v>0.3291992497833257</v>
       </c>
       <c r="AV8" t="n">
-        <v>653.8124102568075</v>
+        <v>608.3750948535733</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.4748705578852121</v>
+        <v>0.3426578350081854</v>
       </c>
       <c r="AX8" t="n">
-        <v>652.4327108202825</v>
+        <v>646.3435732603152</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.5393204548723975</v>
+        <v>0.256050126789766</v>
       </c>
       <c r="AZ8" t="n">
-        <v>656.8418163941082</v>
+        <v>645.8334049105104</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.4626609087268772</v>
+        <v>0.4657184597038564</v>
       </c>
       <c r="BB8" t="n">
-        <v>654.3788269012795</v>
+        <v>644.4806103469878</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.572203508219706</v>
+        <v>0.4843138495913998</v>
       </c>
       <c r="BD8" t="n">
-        <v>659.6702149973549</v>
+        <v>648.8240872657242</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.9185712493006749</v>
+        <v>0.3575038870110615</v>
       </c>
       <c r="BF8" t="n">
-        <v>655.927738673822</v>
+        <v>651.4481090087792</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.3785125564575583</v>
+        <v>0.7501122979060499</v>
       </c>
       <c r="BH8" t="n">
-        <v>651.9040839924592</v>
+        <v>643.9505224060375</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.5355217173097329</v>
+        <v>0.5206478598517021</v>
       </c>
       <c r="BJ8" t="n">
-        <v>655.3010571497163</v>
+        <v>652.2418141550003</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.5947528291272004</v>
+        <v>0.4938236077720162</v>
       </c>
       <c r="BL8" t="n">
-        <v>654.4346240879012</v>
+        <v>648.9357372023153</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.7287823982001429</v>
+        <v>0.5217119407283968</v>
       </c>
       <c r="BN8" t="n">
-        <v>659.2397118613522</v>
+        <v>647.9324399467989</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.4952849114296766</v>
+        <v>0.6093083395072086</v>
       </c>
       <c r="BP8" t="n">
-        <v>659.5847157189672</v>
+        <v>647.3017278594779</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.6061605546386278</v>
+        <v>0.4332369063329367</v>
       </c>
       <c r="BR8" t="n">
-        <v>657.5297514156368</v>
+        <v>646.4415629470863</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.851550466014057</v>
+        <v>0.736512211912685</v>
       </c>
       <c r="BT8" t="n">
-        <v>657.3497103948229</v>
+        <v>651.1893554095534</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.9794106348285309</v>
+        <v>0.3948935037417205</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>650.5443280275392</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.6630393378511388</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>651.5291269934481</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0.5102450436601821</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>646.3900782860692</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>0.4875424136658919</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>648.6409712096993</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0.3731170684993943</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>645.4886685310086</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0.543675658354986</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>647.3900406618425</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0.4870487653364506</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>649.4957474534021</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0.8440688731719223</v>
       </c>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:87">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656.1771947736979</v>
+        <v>656.9018273302094</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3500952863296489</v>
+        <v>0.5793841456643777</v>
       </c>
       <c r="D9" t="n">
-        <v>657.8604851276767</v>
+        <v>648.1666404886361</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4615641875808873</v>
+        <v>0.2817591729055131</v>
       </c>
       <c r="F9" t="n">
-        <v>664.180752149805</v>
+        <v>656.0621390157157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6433365532751536</v>
+        <v>0.566640717754461</v>
       </c>
       <c r="H9" t="n">
-        <v>661.3117996376079</v>
+        <v>649.830270396751</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3361573893839917</v>
+        <v>0.3464297887609749</v>
       </c>
       <c r="J9" t="n">
-        <v>663.4894008694472</v>
+        <v>656.0657401166139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6339251298379648</v>
+        <v>0.4143924947301478</v>
       </c>
       <c r="L9" t="n">
-        <v>661.5974866910865</v>
+        <v>653.2222279139527</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7252203512715937</v>
+        <v>0.2455229615712135</v>
       </c>
       <c r="N9" t="n">
-        <v>658.9253608425551</v>
+        <v>655.3830956316189</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4910315888899549</v>
+        <v>0.3959209464706353</v>
       </c>
       <c r="P9" t="n">
-        <v>659.6745635890994</v>
+        <v>653.52992188111</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7055589381758655</v>
+        <v>0.4934735633657415</v>
       </c>
       <c r="R9" t="n">
-        <v>658.0459368096975</v>
+        <v>650.8806300056315</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4410823608691268</v>
+        <v>0.377384335256178</v>
       </c>
       <c r="T9" t="n">
-        <v>661.7845143482871</v>
+        <v>650.0111872834343</v>
       </c>
       <c r="U9" t="n">
-        <v>0.8474783809486881</v>
+        <v>0.3038504491161867</v>
       </c>
       <c r="V9" t="n">
-        <v>659.7821676517467</v>
+        <v>651.0455816287403</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6799971361049052</v>
+        <v>0.6161306434791081</v>
       </c>
       <c r="X9" t="n">
-        <v>659.0832077485823</v>
+        <v>647.2302859467658</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3493569135147232</v>
+        <v>0.7525176932279218</v>
       </c>
       <c r="Z9" t="n">
-        <v>660.3543629098926</v>
+        <v>651.7201742525129</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.578952967046194</v>
+        <v>0.4991813779969295</v>
       </c>
       <c r="AB9" t="n">
-        <v>658.9230847561255</v>
+        <v>651.0346181461273</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.5693128350081428</v>
+        <v>0.2720941651145654</v>
       </c>
       <c r="AD9" t="n">
-        <v>657.4955842283988</v>
+        <v>652.2842336405887</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.5246169544968523</v>
+        <v>0.3980524313099861</v>
       </c>
       <c r="AF9" t="n">
-        <v>659.6412720317579</v>
+        <v>650.8743330478171</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.4668316090313457</v>
+        <v>0.378552765568381</v>
       </c>
       <c r="AH9" t="n">
-        <v>661.466073668167</v>
+        <v>649.4621928349189</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.5550110205378519</v>
+        <v>0.3757155521155167</v>
       </c>
       <c r="AJ9" t="n">
-        <v>659.4695210490323</v>
+        <v>650.3537701650047</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.6803811272455282</v>
+        <v>0.4711854453943981</v>
       </c>
       <c r="AL9" t="n">
-        <v>659.3718876967283</v>
+        <v>651.5820194573723</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.8765865083114626</v>
+        <v>0.3057521832246345</v>
       </c>
       <c r="AN9" t="n">
-        <v>662.1763984100343</v>
+        <v>649.0776005737363</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.4980612299141522</v>
+        <v>0.458774621566469</v>
       </c>
       <c r="AP9" t="n">
-        <v>646.0730766538047</v>
+        <v>651.4157816136619</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5591157908344246</v>
+        <v>0.4200905465354706</v>
       </c>
       <c r="AR9" t="n">
-        <v>656.5119345014504</v>
+        <v>652.7496195664535</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.587357835555933</v>
+        <v>0.4729925388766333</v>
       </c>
       <c r="AT9" t="n">
-        <v>658.3676710818547</v>
+        <v>654.084286042745</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.3540382847633736</v>
+        <v>0.3907862092458811</v>
       </c>
       <c r="AV9" t="n">
-        <v>657.8460201601254</v>
+        <v>612.0398345113193</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.5189922463588337</v>
+        <v>0.3806119696053691</v>
       </c>
       <c r="AX9" t="n">
-        <v>656.4570103271003</v>
+        <v>650.3254969294852</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.5818503740795729</v>
+        <v>0.282907755403535</v>
       </c>
       <c r="AZ9" t="n">
-        <v>660.8955000728756</v>
+        <v>649.8116813248132</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.5106693185683058</v>
+        <v>0.4431937146659576</v>
       </c>
       <c r="BB9" t="n">
-        <v>658.4162284430131</v>
+        <v>648.449141645737</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.6125915903757284</v>
+        <v>0.5114539640435456</v>
       </c>
       <c r="BD9" t="n">
-        <v>663.7421896131198</v>
+        <v>652.8235292647772</v>
       </c>
       <c r="BE9" t="n">
-        <v>0.910375362515906</v>
+        <v>0.397726082672296</v>
       </c>
       <c r="BF9" t="n">
-        <v>659.9754184249564</v>
+        <v>655.4656992243722</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.3733078659228356</v>
+        <v>0.7948911725051431</v>
       </c>
       <c r="BH9" t="n">
-        <v>655.9247880860047</v>
+        <v>647.9152057150325</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.6097577805749664</v>
+        <v>0.5613726294968824</v>
       </c>
       <c r="BJ9" t="n">
-        <v>659.3445942751471</v>
+        <v>656.2648170997064</v>
       </c>
       <c r="BK9" t="n">
-        <v>0.7042463991500593</v>
+        <v>0.5137740312209064</v>
       </c>
       <c r="BL9" t="n">
-        <v>658.4723981802963</v>
+        <v>652.9359593801096</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.742562992894045</v>
+        <v>0.4970730338378929</v>
       </c>
       <c r="BN9" t="n">
-        <v>663.3089302419145</v>
+        <v>651.925625689317</v>
       </c>
       <c r="BO9" t="n">
-        <v>0.5977087335964743</v>
+        <v>0.6381409272190468</v>
       </c>
       <c r="BP9" t="n">
-        <v>663.6561437271264</v>
+        <v>651.2904605451295</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.703645479597045</v>
+        <v>0.4998959324564834</v>
       </c>
       <c r="BR9" t="n">
-        <v>661.5879236586105</v>
+        <v>650.4241854184958</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.9729482281214854</v>
+        <v>0.6822611915632399</v>
       </c>
       <c r="BT9" t="n">
-        <v>661.4067104067811</v>
+        <v>655.2051733781797</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.969153798191665</v>
+        <v>0.445557504049832</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>654.5557116403672</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.6335230334309351</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>655.5472713395397</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0.5239733746493497</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>650.3723336702411</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>0.501592552501856</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>652.6391320980706</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0.4137298791584357</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>649.4644717703793</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0.5790095429056167</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>651.3793982521917</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0.463839400168133</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>653.4998720705976</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.8234216384546671</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:87">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>660.2265175495593</v>
+        <v>660.9559035852907</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4472486413876928</v>
+        <v>0.6757247212453145</v>
       </c>
       <c r="D10" t="n">
-        <v>661.9208061741388</v>
+        <v>652.1614739290661</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5057766798575346</v>
+        <v>0.30513371203241</v>
       </c>
       <c r="F10" t="n">
-        <v>668.281013874089</v>
+        <v>660.1107044077748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7089062585825305</v>
+        <v>0.6602636460879987</v>
       </c>
       <c r="H10" t="n">
-        <v>665.3941935542465</v>
+        <v>653.8367176033233</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4006368181326856</v>
+        <v>0.4063555923372665</v>
       </c>
       <c r="J10" t="n">
-        <v>667.5853963210927</v>
+        <v>660.1143292248042</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7738782886696502</v>
+        <v>0.5013768591509745</v>
       </c>
       <c r="L10" t="n">
-        <v>665.6816792777865</v>
+        <v>657.251868161967</v>
       </c>
       <c r="M10" t="n">
-        <v>0.8089386060012294</v>
+        <v>0.2723160969591089</v>
       </c>
       <c r="N10" t="n">
-        <v>662.9925603610023</v>
+        <v>659.4271762909428</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5760043929694759</v>
+        <v>0.4959307343388701</v>
       </c>
       <c r="P10" t="n">
-        <v>663.7465659955099</v>
+        <v>657.5616341395837</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8299734778321587</v>
+        <v>0.6539350063503275</v>
       </c>
       <c r="R10" t="n">
-        <v>662.1074601622971</v>
+        <v>654.8943285205912</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5752676451232828</v>
+        <v>0.374020499205912</v>
       </c>
       <c r="T10" t="n">
-        <v>665.8698821141495</v>
+        <v>654.0188879396175</v>
       </c>
       <c r="U10" t="n">
-        <v>0.8697159107761389</v>
+        <v>0.3761981624631667</v>
       </c>
       <c r="V10" t="n">
-        <v>663.8548574039562</v>
+        <v>655.060413234814</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7438674092536477</v>
+        <v>0.6517463180825719</v>
       </c>
       <c r="X10" t="n">
-        <v>663.1514216727776</v>
+        <v>651.2185127764396</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4343656992748055</v>
+        <v>0.7326332512603945</v>
       </c>
       <c r="Z10" t="n">
-        <v>664.4306973096526</v>
+        <v>655.7396238229238</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.7435721576496482</v>
+        <v>0.5177960788946124</v>
       </c>
       <c r="AB10" t="n">
-        <v>662.9902696374816</v>
+        <v>655.049374489161</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.7261454680899051</v>
+        <v>0.3054379628673074</v>
       </c>
       <c r="AD10" t="n">
-        <v>661.553534146924</v>
+        <v>656.307524872975</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.6884099329886295</v>
+        <v>0.5216259874108859</v>
       </c>
       <c r="AF10" t="n">
-        <v>663.7130616552848</v>
+        <v>654.8879882770444</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.5826830387714718</v>
+        <v>0.4626838397872489</v>
       </c>
       <c r="AH10" t="n">
-        <v>665.5494394218432</v>
+        <v>653.4660841307407</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.5227344397716207</v>
+        <v>0.420856652862312</v>
       </c>
       <c r="AJ10" t="n">
-        <v>663.5402119848287</v>
+        <v>654.3638392486882</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.8177114633171273</v>
+        <v>0.446028435853986</v>
       </c>
       <c r="AL10" t="n">
-        <v>663.4419533699945</v>
+        <v>655.6005253673698</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.8899013638245389</v>
+        <v>0.3844584066567572</v>
       </c>
       <c r="AN10" t="n">
-        <v>666.264222574374</v>
+        <v>653.0788130239055</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5312400986082024</v>
+        <v>0.4520203607899786</v>
       </c>
       <c r="AP10" t="n">
-        <v>650.053068402345</v>
+        <v>655.4331506196964</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.6432288796581864</v>
+        <v>0.5099877245528287</v>
       </c>
       <c r="AR10" t="n">
-        <v>660.5634566760042</v>
+        <v>656.776067003511</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.6943890970810961</v>
+        <v>0.5939216998354925</v>
       </c>
       <c r="AT10" t="n">
-        <v>662.4312758728936</v>
+        <v>658.1197181207191</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.4093186661863056</v>
+        <v>0.4536592031395008</v>
       </c>
       <c r="AV10" t="n">
-        <v>661.9062473502789</v>
+        <v>615.7396217406449</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.5557278930017233</v>
+        <v>0.4535695129384582</v>
       </c>
       <c r="AX10" t="n">
-        <v>660.5081720430442</v>
+        <v>654.335370799951</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.6577845730724976</v>
+        <v>0.3558774592703467</v>
       </c>
       <c r="AZ10" t="n">
-        <v>664.9752652526041</v>
+        <v>653.8179996349003</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.6065243292148611</v>
+        <v>0.4748705578852121</v>
       </c>
       <c r="BB10" t="n">
-        <v>662.4801468878892</v>
+        <v>652.4459583991778</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.6692382731107707</v>
+        <v>0.5393204548723975</v>
       </c>
       <c r="BD10" t="n">
-        <v>667.8397478953349</v>
+        <v>656.8504768369446</v>
       </c>
       <c r="BE10" t="n">
-        <v>1</v>
+        <v>0.4626609087268772</v>
       </c>
       <c r="BF10" t="n">
-        <v>664.0493410581574</v>
+        <v>659.5103267883093</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.3761608348642987</v>
+        <v>0.9185712493006749</v>
       </c>
       <c r="BH10" t="n">
-        <v>659.97244838294</v>
+        <v>651.9082700827595</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.7110500325146808</v>
+        <v>0.5355217173097329</v>
       </c>
       <c r="BJ10" t="n">
-        <v>663.4144850648546</v>
+        <v>660.3147161867107</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.8186048340377831</v>
+        <v>0.5601610857825395</v>
       </c>
       <c r="BL10" t="n">
-        <v>662.5366792923094</v>
+        <v>656.9636671643512</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.8975163719068464</v>
+        <v>0.5128925637900086</v>
       </c>
       <c r="BN10" t="n">
-        <v>667.4038079165161</v>
+        <v>655.9464766032605</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.6598334128679505</v>
+        <v>0.7281817528022164</v>
       </c>
       <c r="BP10" t="n">
-        <v>667.753170417471</v>
+        <v>655.3069714490124</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.7542859367024811</v>
+        <v>0.5947528291272004</v>
       </c>
       <c r="BR10" t="n">
-        <v>665.6720561068003</v>
+        <v>654.4347404889054</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.9931699066285016</v>
+        <v>0.7287823982001429</v>
       </c>
       <c r="BT10" t="n">
-        <v>665.4897023553592</v>
+        <v>659.248074771215</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.9870281183710227</v>
+        <v>0.4952849114296766</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>658.5942936273956</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0.6772437048699189</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>659.5924386114062</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0.6061605546386278</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>654.3825309014259</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>0.5597720327133664</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>656.6648313152847</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0.4064646695581938</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>653.4683789147667</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0.5992155710679242</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>655.3965182241446</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0.5331115128430378</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>657.5313822056324</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0.851550466014057</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:87">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664.3020391416767</v>
+        <v>665.0360507548485</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5317591729055131</v>
+        <v>0.6791839848544183</v>
       </c>
       <c r="D11" t="n">
-        <v>666.0070291597684</v>
+        <v>656.1839305961377</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6337798762097231</v>
+        <v>0.3500952863296489</v>
       </c>
       <c r="F11" t="n">
-        <v>672.4060699626862</v>
+        <v>664.1854889381495</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8556702855706599</v>
+        <v>0.5947105981509372</v>
       </c>
       <c r="H11" t="n">
-        <v>669.5018832304847</v>
+        <v>657.8704905868693</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4932931753730261</v>
+        <v>0.4615641875808873</v>
       </c>
       <c r="J11" t="n">
-        <v>671.7063067586087</v>
+        <v>664.1891368351965</v>
       </c>
       <c r="K11" t="n">
-        <v>0.871093991654896</v>
+        <v>0.6433365532751536</v>
       </c>
       <c r="L11" t="n">
-        <v>669.7911175954151</v>
+        <v>661.3082303947579</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9181790435795472</v>
+        <v>0.3361573893839917</v>
       </c>
       <c r="N11" t="n">
-        <v>667.0854744293015</v>
+        <v>663.4975961055475</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6489549343546864</v>
+        <v>0.6339251298379648</v>
       </c>
       <c r="P11" t="n">
-        <v>667.8441513047077</v>
+        <v>661.6200137850608</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.9490064339224473</v>
+        <v>0.7252203512715937</v>
       </c>
       <c r="R11" t="n">
-        <v>666.1948527963601</v>
+        <v>658.9351654615506</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7051109388634657</v>
+        <v>0.4910315888899549</v>
       </c>
       <c r="T11" t="n">
-        <v>669.9804628713357</v>
+        <v>658.0538820783361</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9017859903765431</v>
+        <v>0.4410823608691268</v>
       </c>
       <c r="V11" t="n">
-        <v>667.953111164128</v>
+        <v>659.10235387593</v>
       </c>
       <c r="W11" t="n">
-        <v>0.8853332867412292</v>
+        <v>0.7369731858762499</v>
       </c>
       <c r="X11" t="n">
-        <v>667.2453223974167</v>
+        <v>655.2345306374581</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5062811713522145</v>
+        <v>0.7828260959501799</v>
       </c>
       <c r="Z11" t="n">
-        <v>668.5324952966197</v>
+        <v>659.7860623174707</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9038505890030998</v>
+        <v>0.6799971361049052</v>
       </c>
       <c r="AB11" t="n">
-        <v>667.083169468876</v>
+        <v>659.0912418204406</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7691157726000547</v>
+        <v>0.3493569135147232</v>
       </c>
       <c r="AD11" t="n">
-        <v>665.6374502917587</v>
+        <v>660.3577047063486</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.8424614306170698</v>
+        <v>0.578952967046194</v>
       </c>
       <c r="AF11" t="n">
-        <v>667.8104400281153</v>
+        <v>658.9287830544259</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.65642400429981</v>
+        <v>0.5693128350081428</v>
       </c>
       <c r="AH11" t="n">
-        <v>669.6580739163238</v>
+        <v>657.4973669387067</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.4845262481687144</v>
+        <v>0.5246169544968523</v>
       </c>
       <c r="AJ11" t="n">
-        <v>667.6365218370161</v>
+        <v>658.4011406904805</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.947128528687309</v>
+        <v>0.4741973088140999</v>
       </c>
       <c r="AL11" t="n">
-        <v>667.5376551120905</v>
+        <v>659.6460447884813</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.9082616445898057</v>
+        <v>0.4668316090313457</v>
       </c>
       <c r="AN11" t="n">
-        <v>670.377191160877</v>
+        <v>657.1074857164083</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.6619550580339136</v>
+        <v>0.4969034586583939</v>
       </c>
       <c r="AP11" t="n">
-        <v>654.0610589589247</v>
+        <v>659.4775627294614</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.7903540409353728</v>
+        <v>0.6803811272455282</v>
       </c>
       <c r="AR11" t="n">
-        <v>664.6411185643793</v>
+        <v>660.829320341528</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.6310398034527345</v>
+        <v>0.6054212340082789</v>
       </c>
       <c r="AT11" t="n">
-        <v>666.5206933118627</v>
+        <v>662.1817192901339</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.4838624296600064</v>
+        <v>0.4980612299141522</v>
       </c>
       <c r="AV11" t="n">
-        <v>665.9923790272683</v>
+        <v>619.4737437415498</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.6279571690510397</v>
+        <v>0.5591157908344246</v>
       </c>
       <c r="AX11" t="n">
-        <v>664.5854831681143</v>
+        <v>658.3724820717123</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.7299963274955815</v>
+        <v>0.3540382847633736</v>
       </c>
       <c r="AZ11" t="n">
-        <v>669.0803991332938</v>
+        <v>657.8516470407715</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.7232231768047028</v>
+        <v>0.5189922463588337</v>
       </c>
       <c r="BB11" t="n">
-        <v>666.5698694359077</v>
+        <v>656.4703478073105</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.7502089459983272</v>
+        <v>0.5818503740795729</v>
       </c>
       <c r="BD11" t="n">
-        <v>671.9621770440003</v>
+        <v>660.9042171822265</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.9983800519682238</v>
+        <v>0.5106693185683058</v>
       </c>
       <c r="BF11" t="n">
-        <v>668.1487937734252</v>
+        <v>663.5812789005902</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.3778312067962018</v>
+        <v>0.910375362515906</v>
       </c>
       <c r="BH11" t="n">
-        <v>664.0463520832649</v>
+        <v>655.9290027092185</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.7732566486279648</v>
+        <v>0.6097577805749664</v>
       </c>
       <c r="BJ11" t="n">
-        <v>667.5100167188388</v>
+        <v>664.3907986160131</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.9472897055532666</v>
+        <v>0.6439155489765934</v>
       </c>
       <c r="BL11" t="n">
-        <v>666.6267546239401</v>
+        <v>661.0181477550403</v>
       </c>
       <c r="BM11" t="n">
-        <v>1</v>
+        <v>0.6003749479238994</v>
       </c>
       <c r="BN11" t="n">
-        <v>671.5236320851573</v>
+        <v>659.9942798886293</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.7174256187594704</v>
+        <v>0.8024897936042076</v>
       </c>
       <c r="BP11" t="n">
-        <v>671.8750829900008</v>
+        <v>659.3505477711263</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.8640670694320943</v>
+        <v>0.7042463991500593</v>
       </c>
       <c r="BR11" t="n">
-        <v>669.7814359602061</v>
+        <v>658.4725153583155</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.928229520722387</v>
+        <v>0.742562992894045</v>
       </c>
       <c r="BT11" t="n">
-        <v>669.5979734405571</v>
+        <v>663.3173467886596</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.9578953590199681</v>
+        <v>0.5977087335964743</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>662.6593611886244</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.7355193425056451</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>663.6639160090477</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.703645479597045</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>658.4199571796237</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>0.6182867535764114</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>660.7173560613417</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0.4680748212918073</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>657.4996771641705</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0.6204498530800371</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>659.4406877777012</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0.6223348871348885</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>661.5895650585067</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0.9729482281214854</v>
       </c>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:87">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>668.4030467500503</v>
+        <v>669.1415560388826</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6386795579900992</v>
+        <v>0.8207664153831342</v>
       </c>
       <c r="D12" t="n">
-        <v>670.1184412845658</v>
+        <v>660.2332976898509</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7477098045921674</v>
+        <v>0.4472486413876928</v>
       </c>
       <c r="F12" t="n">
-        <v>676.5552076155966</v>
+        <v>668.2857798068396</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8886579785716089</v>
+        <v>0.718286530121258</v>
       </c>
       <c r="H12" t="n">
-        <v>673.6341558663224</v>
+        <v>661.9308765473887</v>
       </c>
       <c r="I12" t="n">
-        <v>0.5866502390759304</v>
+        <v>0.5057766798575346</v>
       </c>
       <c r="J12" t="n">
-        <v>675.851419381995</v>
+        <v>668.2894501477906</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9234252347466078</v>
+        <v>0.7089062585825305</v>
       </c>
       <c r="L12" t="n">
-        <v>673.9250888439722</v>
+        <v>665.3906018123255</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9499646402216841</v>
+        <v>0.4006368181326856</v>
       </c>
       <c r="N12" t="n">
-        <v>671.2033902474526</v>
+        <v>667.593642275433</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7877524223758597</v>
+        <v>0.7738782886696502</v>
       </c>
       <c r="P12" t="n">
-        <v>671.966606716693</v>
+        <v>665.7043480175411</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0.8089386060012294</v>
       </c>
       <c r="R12" t="n">
-        <v>670.3074019118862</v>
+        <v>663.0024280285096</v>
       </c>
       <c r="S12" t="n">
-        <v>0.846580358932553</v>
+        <v>0.5760043929694759</v>
       </c>
       <c r="T12" t="n">
-        <v>674.1155438198456</v>
+        <v>662.1154568995902</v>
       </c>
       <c r="U12" t="n">
-        <v>0.8452681818344365</v>
+        <v>0.5752676451232828</v>
       </c>
       <c r="V12" t="n">
-        <v>672.0762161322622</v>
+        <v>663.1706907520884</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9594813918985953</v>
+        <v>0.7482339223274875</v>
       </c>
       <c r="X12" t="n">
-        <v>671.3641971224994</v>
+        <v>659.2776267298211</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.6304311424786633</v>
+        <v>0.738958668431438</v>
       </c>
       <c r="Z12" t="n">
-        <v>672.6590440707942</v>
+        <v>663.8587769361535</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.9727073776371509</v>
+        <v>0.7438674092536477</v>
       </c>
       <c r="AB12" t="n">
-        <v>671.2010714503086</v>
+        <v>663.159507339966</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.9149147586615105</v>
+        <v>0.4343656992748055</v>
       </c>
       <c r="AD12" t="n">
-        <v>669.7466198629029</v>
+        <v>664.4340603407093</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.934989805034152</v>
+        <v>0.7435721576496482</v>
       </c>
       <c r="AF12" t="n">
-        <v>671.9326943502491</v>
+        <v>662.9960045799616</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.795423552121868</v>
+        <v>0.7261454680899051</v>
       </c>
       <c r="AH12" t="n">
-        <v>673.7912643516086</v>
+        <v>661.5553284588167</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.491964365216781</v>
+        <v>0.6884099329886295</v>
       </c>
       <c r="AJ12" t="n">
-        <v>671.7577378055944</v>
+        <v>662.4649616903815</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.9594119553022195</v>
+        <v>0.5101021661283228</v>
       </c>
       <c r="AL12" t="n">
-        <v>671.6582801230164</v>
+        <v>663.7178649207068</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.8977371503124679</v>
+        <v>0.5826830387714718</v>
       </c>
       <c r="AN12" t="n">
-        <v>674.5145913695432</v>
+        <v>661.1629058512448</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.7645596075592752</v>
+        <v>0.5653278633244717</v>
       </c>
       <c r="AP12" t="n">
-        <v>658.0963355235439</v>
+        <v>663.5483051429568</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8889539910029259</v>
+        <v>0.8177114633171273</v>
       </c>
       <c r="AR12" t="n">
-        <v>668.7442073665759</v>
+        <v>664.9086667805044</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.7003636618809704</v>
+        <v>0.6336744980854194</v>
       </c>
       <c r="AT12" t="n">
-        <v>670.6352105987621</v>
+        <v>666.2695767509892</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.594981500595632</v>
+        <v>0.5312400986082024</v>
       </c>
       <c r="AV12" t="n">
-        <v>670.1037023910933</v>
+        <v>623.2414877140342</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.7160009063946786</v>
+        <v>0.6432288796581864</v>
       </c>
       <c r="AX12" t="n">
-        <v>668.6882309023105</v>
+        <v>662.4361179447693</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.7737390708336562</v>
+        <v>0.4093186661863056</v>
       </c>
       <c r="AZ12" t="n">
-        <v>673.2101889149445</v>
+        <v>661.911910742427</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.7996382694157101</v>
+        <v>0.5557278930017233</v>
       </c>
       <c r="BB12" t="n">
-        <v>670.6846832870687</v>
+        <v>660.5215970701349</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.8246975862321352</v>
+        <v>0.6577845730724976</v>
       </c>
       <c r="BD12" t="n">
-        <v>676.108764259116</v>
+        <v>664.9840375006228</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.9915387586751824</v>
+        <v>0.6065243292148611</v>
       </c>
       <c r="BF12" t="n">
-        <v>672.2730637707596</v>
+        <v>667.6778427612151</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.4243476291089202</v>
+        <v>1</v>
       </c>
       <c r="BH12" t="n">
-        <v>668.1457863869795</v>
+        <v>659.9766907944096</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.7677698445942452</v>
+        <v>0.7110500325146808</v>
       </c>
       <c r="BJ12" t="n">
-        <v>671.6304764370997</v>
+        <v>668.4923515876135</v>
       </c>
       <c r="BK12" t="n">
-        <v>1</v>
+        <v>0.7232720864289285</v>
       </c>
       <c r="BL12" t="n">
-        <v>670.7419113751887</v>
+        <v>665.0986883521769</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.9616737380017712</v>
+        <v>0.6056171467954554</v>
       </c>
       <c r="BN12" t="n">
-        <v>675.6676899478376</v>
+        <v>664.0683227454235</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.8037349653274567</v>
+        <v>0.8260109459290284</v>
       </c>
       <c r="BP12" t="n">
-        <v>676.0211686447161</v>
+        <v>663.4204767114717</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.8712117494752569</v>
+        <v>0.8186048340377831</v>
       </c>
       <c r="BR12" t="n">
-        <v>673.915350418828</v>
+        <v>662.5367972267258</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.9839154782973902</v>
+        <v>0.8975163719068464</v>
       </c>
       <c r="BT12" t="n">
-        <v>673.7308108623748</v>
+        <v>667.4122766305134</v>
       </c>
       <c r="BU12" t="n">
-        <v>1</v>
+        <v>0.6598334128679505</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>666.7502015240535</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.7634789657966512</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>667.7609907324643</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.7542859367024811</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>662.4838997048344</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>0.7253180626424226</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>664.7959935362416</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>0.503685220000345</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>661.5576537185909</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0.6539256765757411</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>663.5111941128616</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0.6098898909051704</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>665.6737078292202</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0.9931699066285016</v>
       </c>
     </row>
-    <row r="13" spans="1:73">
+    <row r="13" spans="1:87">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>672.52882757468</v>
+        <v>673.2717066373933</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8027196559855118</v>
+        <v>0.9111694205804729</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2543297485308</v>
+        <v>664.3088624102057</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9225276379450515</v>
+        <v>0.5317591729055131</v>
       </c>
       <c r="F13" t="n">
-        <v>680.7277140328202</v>
+        <v>672.4108642138453</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9756652107078692</v>
+        <v>0.739964111634453</v>
       </c>
       <c r="H13" t="n">
-        <v>677.7902986617596</v>
+        <v>666.0171626848817</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6828090740761897</v>
+        <v>0.6337798762097231</v>
       </c>
       <c r="J13" t="n">
-        <v>680.0200213912519</v>
+        <v>672.4145563625867</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.8556702855706599</v>
       </c>
       <c r="L13" t="n">
-        <v>678.0828802234578</v>
+        <v>669.4982696146697</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0.4932931753730261</v>
       </c>
       <c r="N13" t="n">
-        <v>675.3455950154556</v>
+        <v>671.7146020005991</v>
       </c>
       <c r="O13" t="n">
-        <v>0.8537988200815656</v>
+        <v>0.871093991654896</v>
       </c>
       <c r="P13" t="n">
-        <v>676.113219431466</v>
+        <v>669.8139240370247</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9394365416089951</v>
+        <v>0.9181790435795472</v>
       </c>
       <c r="R13" t="n">
-        <v>674.4443947088758</v>
+        <v>667.0954034214684</v>
       </c>
       <c r="S13" t="n">
-        <v>0.8862911951944349</v>
+        <v>0.6489549343546864</v>
       </c>
       <c r="T13" t="n">
-        <v>678.2744121596793</v>
+        <v>666.2028996033798</v>
       </c>
       <c r="U13" t="n">
-        <v>0.8611363751262042</v>
+        <v>0.7051109388634657</v>
       </c>
       <c r="V13" t="n">
-        <v>676.2234595083585</v>
+        <v>667.2647110632889</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>0.8609907701960547</v>
       </c>
       <c r="X13" t="n">
-        <v>675.5073330480257</v>
+        <v>663.3470882535288</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7422758382778765</v>
+        <v>0.8762631180799252</v>
       </c>
       <c r="Z13" t="n">
-        <v>676.8096308321758</v>
+        <v>667.9570548789724</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0.8853332867412292</v>
       </c>
       <c r="AB13" t="n">
-        <v>675.3432627817796</v>
+        <v>667.2534582477374</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.9384070445936403</v>
+        <v>0.5062811713522145</v>
       </c>
       <c r="AD13" t="n">
-        <v>673.8803300603565</v>
+        <v>668.5358789760571</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0.9038505890030998</v>
       </c>
       <c r="AF13" t="n">
-        <v>676.0791118216865</v>
+        <v>667.0889400536512</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.8877774799876124</v>
+        <v>0.7691157726000547</v>
       </c>
       <c r="AH13" t="n">
-        <v>677.9482979276976</v>
+        <v>665.6392558910708</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.4649431892646378</v>
+        <v>0.8424614306170698</v>
       </c>
       <c r="AJ13" t="n">
-        <v>675.9031470905636</v>
+        <v>666.5545894483912</v>
       </c>
       <c r="AK13" t="n">
-        <v>1</v>
+        <v>0.5140632783946256</v>
       </c>
       <c r="AL13" t="n">
-        <v>675.8031156027722</v>
+        <v>667.8152729640462</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.8640947741204811</v>
+        <v>0.65642400429981</v>
       </c>
       <c r="AN13" t="n">
-        <v>678.6757104003724</v>
+        <v>665.2443606284149</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.7712191192689798</v>
+        <v>0.5894424767979671</v>
       </c>
       <c r="AP13" t="n">
-        <v>662.1581852962025</v>
+        <v>667.6446650601827</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.9806869866549677</v>
+        <v>0.947128528687309</v>
       </c>
       <c r="AR13" t="n">
-        <v>672.8720102825938</v>
+        <v>669.0133935204403</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.6931964009395163</v>
+        <v>0.7293001044715031</v>
       </c>
       <c r="AT13" t="n">
-        <v>674.7741149335917</v>
+        <v>670.3825777032853</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.6641140347143218</v>
+        <v>0.6619550580339136</v>
       </c>
       <c r="AV13" t="n">
-        <v>674.2395046417539</v>
+        <v>627.042140858098</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.7634727338737577</v>
+        <v>0.7903540409353728</v>
       </c>
       <c r="AX13" t="n">
-        <v>672.8157024456327</v>
+        <v>666.5255656191219</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.8922535837029889</v>
+        <v>0.4838624296600064</v>
       </c>
       <c r="AZ13" t="n">
-        <v>677.3639217975564</v>
+        <v>665.9980779398669</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.8773185170004495</v>
+        <v>0.6279571690510397</v>
       </c>
       <c r="BB13" t="n">
-        <v>674.823875641372</v>
+        <v>664.598993387651</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.8342374438844347</v>
+        <v>0.7299963274955815</v>
       </c>
       <c r="BD13" t="n">
-        <v>680.278796740682</v>
+        <v>669.0892249921335</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.9987037540648798</v>
+        <v>0.7232231768047028</v>
       </c>
       <c r="BF13" t="n">
-        <v>676.4214382501607</v>
+        <v>671.7993055701838</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.396306262913033</v>
+        <v>0.9983800519682238</v>
       </c>
       <c r="BH13" t="n">
-        <v>672.2700384940837</v>
+        <v>664.0506215383328</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.8482898403316392</v>
+        <v>0.7732566486279648</v>
       </c>
       <c r="BJ13" t="n">
-        <v>675.7751514196374</v>
+        <v>672.6186623015119</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.9979906765854302</v>
+        <v>0.7005878435465193</v>
       </c>
       <c r="BL13" t="n">
-        <v>674.881436746055</v>
+        <v>669.2045761557607</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.9254917712396193</v>
+        <v>0.6776664249306937</v>
       </c>
       <c r="BN13" t="n">
-        <v>679.8352687045575</v>
+        <v>668.1678923736431</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.9306749094031305</v>
+        <v>0.8651233690599994</v>
       </c>
       <c r="BP13" t="n">
-        <v>680.1907145816167</v>
+        <v>667.5160454700481</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.9526743552550662</v>
+        <v>0.9472897055532666</v>
       </c>
       <c r="BR13" t="n">
-        <v>678.0730866826658</v>
+        <v>666.6268732941364</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.9572276810608942</v>
+        <v>1</v>
       </c>
       <c r="BT13" t="n">
-        <v>677.8875018208124</v>
+        <v>671.5321514967764</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.9541093759612177</v>
+        <v>0.7174256187594704</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>670.8661018336829</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>0.7774183999775587</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>671.8829499816557</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.8640670694320943</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>666.5736456770579</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>0.7910105952563493</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>668.9000309399844</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>0.5667417163399417</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>665.6415957780277</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0.8029365193103878</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>667.6073244296258</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0.637919890162994</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>669.7830977177732</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0.928229520722387</v>
       </c>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:87">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>676.678668815566</v>
+        <v>677.4257897503803</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8810178946689844</v>
+        <v>0.9208599056354468</v>
       </c>
       <c r="D14" t="n">
-        <v>678.4139817516635</v>
+        <v>668.4099119572021</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9665768864128068</v>
+        <v>0.6386795579900992</v>
       </c>
       <c r="F14" t="n">
-        <v>684.9228764143571</v>
+        <v>676.5600293591666</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0.8532139667309406</v>
       </c>
       <c r="H14" t="n">
-        <v>681.9695988167964</v>
+        <v>670.128636199348</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7886965110996087</v>
+        <v>0.7477098045921674</v>
       </c>
       <c r="J14" t="n">
-        <v>684.2113999863793</v>
+        <v>676.5637426795848</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9783473968596625</v>
+        <v>0.8886579785716089</v>
       </c>
       <c r="L14" t="n">
-        <v>682.2637789338718</v>
+        <v>673.6305210017905</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9325064394698326</v>
+        <v>0.5866502390759304</v>
       </c>
       <c r="N14" t="n">
-        <v>679.5113759333105</v>
+        <v>675.8597624810461</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9535371743722627</v>
+        <v>0.9234252347466078</v>
       </c>
       <c r="P14" t="n">
-        <v>680.2832766490262</v>
+        <v>673.9480290435116</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.9793422003966995</v>
+        <v>0.9499646402216841</v>
       </c>
       <c r="R14" t="n">
-        <v>678.6051183873286</v>
+        <v>671.2133788404268</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9520335302342779</v>
+        <v>0.7877524223758597</v>
       </c>
       <c r="T14" t="n">
-        <v>682.4563550908367</v>
+        <v>670.3154973897049</v>
       </c>
       <c r="U14" t="n">
-        <v>0.8447177531346213</v>
+        <v>0.846580358932553</v>
       </c>
       <c r="V14" t="n">
-        <v>680.3941284924171</v>
+        <v>671.3837020095318</v>
       </c>
       <c r="W14" t="n">
-        <v>0.9578544032197169</v>
+        <v>0.8558290918967586</v>
       </c>
       <c r="X14" t="n">
-        <v>679.6740173739955</v>
+        <v>667.442202408581</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8228810925082927</v>
+        <v>0.8256964481272694</v>
       </c>
       <c r="Z14" t="n">
-        <v>680.9835427807647</v>
+        <v>672.0801833459273</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.9648668923716592</v>
+        <v>0.9594813918985953</v>
       </c>
       <c r="AB14" t="n">
-        <v>679.5090306632889</v>
+        <v>671.3723817437548</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.9991476872027681</v>
+        <v>0.6304311424786633</v>
       </c>
       <c r="AD14" t="n">
-        <v>678.0378680841199</v>
+        <v>672.6624478123921</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.9413886187584102</v>
+        <v>0.9727073776371509</v>
       </c>
       <c r="AF14" t="n">
-        <v>680.2489796424273</v>
+        <v>671.206876675495</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.9468045849777086</v>
+        <v>0.9149147586615105</v>
       </c>
       <c r="AH14" t="n">
-        <v>682.128461844591</v>
+        <v>669.748436435469</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.4657727434514754</v>
+        <v>0.934989805034152</v>
       </c>
       <c r="AJ14" t="n">
-        <v>680.0720368919237</v>
+        <v>670.6693111645096</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.9584320957404279</v>
+        <v>0.5643615476479165</v>
       </c>
       <c r="AL14" t="n">
-        <v>679.9714487513578</v>
+        <v>671.9375561184997</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.9616257593454243</v>
+        <v>0.795423552121868</v>
       </c>
       <c r="AN14" t="n">
-        <v>682.8598354533649</v>
+        <v>669.3511372479188</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.8487352641725483</v>
+        <v>0.6624724795391356</v>
       </c>
       <c r="AP14" t="n">
-        <v>666.2458954769006</v>
+        <v>671.7659296811391</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0.9594119553022195</v>
       </c>
       <c r="AR14" t="n">
-        <v>677.0238145124331</v>
+        <v>673.1427877613355</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.7475392319043228</v>
+        <v>0.7751037265300649</v>
       </c>
       <c r="AT14" t="n">
-        <v>678.9366935163516</v>
+        <v>674.520009347022</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.7704188114239733</v>
+        <v>0.7645596075592752</v>
       </c>
       <c r="AV14" t="n">
-        <v>678.3990729792503</v>
+        <v>630.8749903737413</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.8740504500323212</v>
+        <v>0.8889539910029259</v>
       </c>
       <c r="AX14" t="n">
-        <v>676.9671849980812</v>
+        <v>670.6401122947702</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.9251219301010598</v>
+        <v>0.594981500595632</v>
       </c>
       <c r="AZ14" t="n">
-        <v>681.5408849811292</v>
+        <v>670.109435833091</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.9670644613091056</v>
+        <v>0.7160009063946786</v>
       </c>
       <c r="BB14" t="n">
-        <v>678.9867336988177</v>
+        <v>668.7018239598589</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.8374116672991633</v>
+        <v>0.7737390708336562</v>
       </c>
       <c r="BD14" t="n">
-        <v>684.4715616886982</v>
+        <v>673.2190668567587</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.9346049887330022</v>
+        <v>0.7996382694157101</v>
       </c>
       <c r="BF14" t="n">
-        <v>680.5932044116284</v>
+        <v>675.9449545274965</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.4165630734592897</v>
+        <v>0.9915387586751824</v>
       </c>
       <c r="BH14" t="n">
-        <v>676.4183956045777</v>
+        <v>668.150082140988</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.8884477396405835</v>
+        <v>0.7677698445942452</v>
       </c>
       <c r="BJ14" t="n">
-        <v>679.9433288664517</v>
+        <v>676.7690179577083</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.9887397914048073</v>
+        <v>0.8464625973498238</v>
       </c>
       <c r="BL14" t="n">
-        <v>679.0446179365392</v>
+        <v>673.335098365792</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.8722964950224631</v>
+        <v>0.7383016504909298</v>
       </c>
       <c r="BN14" t="n">
-        <v>684.0256555553166</v>
+        <v>672.2922759732879</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.9662361422630147</v>
+        <v>0.9068393601391777</v>
       </c>
       <c r="BP14" t="n">
-        <v>684.3830080007026</v>
+        <v>671.6365412468557</v>
       </c>
       <c r="BQ14" t="n">
         <v>1</v>
       </c>
       <c r="BR14" t="n">
-        <v>682.2539319517197</v>
+        <v>670.7420307605473</v>
       </c>
       <c r="BS14" t="n">
-        <v>1</v>
+        <v>0.9616737380017712</v>
       </c>
       <c r="BT14" t="n">
-        <v>682.0673335158698</v>
+        <v>675.6762585874484</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.9330961069377469</v>
+        <v>0.8037349653274567</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>675.0063493175128</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.846593497348641</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>676.0290809566221</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0.8712117494752569</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>670.6884822962944</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>0.8089516935862188</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>673.0287554725701</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0.6449449682620708</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>669.7507905424811</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0.8401676772434028</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>671.7283659279937</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0.7496099741362363</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>673.9170219241655</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.9839154782973902</v>
       </c>
     </row>
-    <row r="15" spans="1:73">
+    <row r="15" spans="1:87">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>680.8518576727081</v>
+        <v>681.6030925778439</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9748221474271966</v>
+        <v>0.9403112730500915</v>
       </c>
       <c r="D15" t="n">
-        <v>682.5966844939639</v>
+        <v>672.5357335308402</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996239630849285</v>
+        <v>0.8027196559855118</v>
       </c>
       <c r="F15" t="n">
-        <v>689.1399819602074</v>
+        <v>680.7325624428034</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9917836098604447</v>
+        <v>0.9451384901716587</v>
       </c>
       <c r="H15" t="n">
-        <v>686.1713435314327</v>
+        <v>674.2645842907878</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8744855319736046</v>
+        <v>0.9225276379450515</v>
       </c>
       <c r="J15" t="n">
-        <v>688.4248423673772</v>
+        <v>680.736296298785</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9063812033994726</v>
+        <v>0.9756652107078692</v>
       </c>
       <c r="L15" t="n">
-        <v>686.4670721752144</v>
+        <v>677.7866431736878</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8946006934421832</v>
+        <v>0.6828090740761897</v>
       </c>
       <c r="N15" t="n">
-        <v>683.7000202010174</v>
+        <v>680.0284109167739</v>
       </c>
       <c r="O15" t="n">
-        <v>0.9869322386640365</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>684.4760655693741</v>
+        <v>678.1059502370018</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8987928898303843</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>682.7888601472447</v>
+        <v>675.355641485385</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0.8537988200815656</v>
       </c>
       <c r="T15" t="n">
-        <v>686.6606598133178</v>
+        <v>674.4525374585653</v>
       </c>
       <c r="U15" t="n">
-        <v>0.8545970016991769</v>
+        <v>0.8862911951944349</v>
       </c>
       <c r="V15" t="n">
-        <v>684.5875102844379</v>
+        <v>675.526950790817</v>
       </c>
       <c r="W15" t="n">
-        <v>0.938671528704661</v>
+        <v>0.978457158524655</v>
       </c>
       <c r="X15" t="n">
-        <v>683.8635373004091</v>
+        <v>671.5622563949777</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9377903819119857</v>
+        <v>0.9357789411736587</v>
       </c>
       <c r="Z15" t="n">
-        <v>685.1800671165607</v>
+        <v>676.2274495370181</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.9486503818811306</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>683.6976622948364</v>
+        <v>675.5155650280179</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>0.7422758382778765</v>
       </c>
       <c r="AD15" t="n">
-        <v>682.2185211341925</v>
+        <v>676.8130540497142</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.8206157369207291</v>
+        <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>684.4415850124716</v>
+        <v>675.349101645493</v>
       </c>
       <c r="AG15" t="n">
-        <v>1</v>
+        <v>0.9384070445936403</v>
       </c>
       <c r="AH15" t="n">
-        <v>686.3310433022887</v>
+        <v>673.8821572920112</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.4595843288978245</v>
+        <v>1</v>
       </c>
       <c r="AJ15" t="n">
-        <v>684.2636944096747</v>
+        <v>674.8084140387367</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.9160451297989503</v>
+        <v>0.6110418915383531</v>
       </c>
       <c r="AL15" t="n">
-        <v>684.1625667687733</v>
+        <v>676.0840015840672</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.9381205338280295</v>
+        <v>0.8877774799876124</v>
       </c>
       <c r="AN15" t="n">
-        <v>687.0662537285205</v>
+        <v>673.4825229097563</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.9551021376741425</v>
+        <v>0.8122993616993504</v>
       </c>
       <c r="AP15" t="n">
-        <v>670.3587532656383</v>
+        <v>675.911386205826</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.9993567261361556</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>681.1989072560939</v>
+        <v>677.2961367031902</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.714665409937965</v>
+        <v>0.8229918486810911</v>
       </c>
       <c r="AT15" t="n">
-        <v>683.1222335470417</v>
+        <v>678.6811588821994</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.8732771875097344</v>
+        <v>0.7712191192689798</v>
       </c>
       <c r="AV15" t="n">
-        <v>682.5816946035823</v>
+        <v>634.739323460964</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.9923705843098474</v>
+        <v>0.9806869866549677</v>
       </c>
       <c r="AX15" t="n">
-        <v>681.1419657596557</v>
+        <v>674.7790451717142</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.9693342472172711</v>
+        <v>0.6641140347143218</v>
       </c>
       <c r="AZ15" t="n">
-        <v>685.7403656656633</v>
+        <v>674.2452716220993</v>
       </c>
       <c r="BA15" t="n">
-        <v>1</v>
+        <v>0.7634727338737577</v>
       </c>
       <c r="BB15" t="n">
-        <v>683.1725446594058</v>
+        <v>672.8293759867586</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.7944475892994265</v>
+        <v>0.8922535837029889</v>
       </c>
       <c r="BD15" t="n">
-        <v>688.6863463031648</v>
+        <v>677.3728502944983</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.9283740616190788</v>
+        <v>0.8773185170004495</v>
       </c>
       <c r="BF15" t="n">
-        <v>684.787649455163</v>
+        <v>680.1140768331533</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.4310037385459576</v>
+        <v>0.9987037540648798</v>
       </c>
       <c r="BH15" t="n">
-        <v>680.5901449184612</v>
+        <v>672.2743598023753</v>
       </c>
       <c r="BI15" t="n">
-        <v>1</v>
+        <v>0.8482898403316392</v>
       </c>
       <c r="BJ15" t="n">
-        <v>684.1342959775427</v>
+        <v>680.9427057562028</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.9490093296887385</v>
+        <v>0.9005873448741128</v>
       </c>
       <c r="BL15" t="n">
-        <v>683.2307421466411</v>
+        <v>677.4895421822707</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.8652385224722492</v>
+        <v>0.8435588292778267</v>
       </c>
       <c r="BN15" t="n">
-        <v>688.2381377001152</v>
+        <v>676.4407607443582</v>
       </c>
       <c r="BO15" t="n">
-        <v>1</v>
+        <v>0.9369718292441159</v>
       </c>
       <c r="BP15" t="n">
-        <v>688.597336101974</v>
+        <v>675.7812512418944</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.9360735231870626</v>
+        <v>0.9979906765854302</v>
       </c>
       <c r="BR15" t="n">
-        <v>686.4571734259896</v>
+        <v>674.8815568259586</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.8886014842077069</v>
+        <v>0.9254917712396193</v>
       </c>
       <c r="BT15" t="n">
-        <v>686.2695931475471</v>
+        <v>679.8438851025297</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.9323946417734816</v>
+        <v>0.9306749094031305</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>679.1702311755429</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.8963356057738925</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>680.1986708573635</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.9526743552550662</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>674.8276967625438</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>0.9025147147903949</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>677.1814543339985</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>0.7268238070615746</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>673.8845252119511</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0.9040002255936406</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>675.8736058079652</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0.834517515683747</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>678.0747676483971</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0.9572276810608942</v>
       </c>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:87">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>685.0476813461064</v>
+        <v>685.8029023197838</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.9592151789747302</v>
       </c>
       <c r="D16" t="n">
-        <v>686.8017251754319</v>
+        <v>676.6856143311197</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.8810178946689844</v>
       </c>
       <c r="F16" t="n">
-        <v>693.3783178703708</v>
+        <v>684.9277506647558</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9415989380701155</v>
+        <v>0.9841993531805969</v>
       </c>
       <c r="H16" t="n">
-        <v>690.3948200056685</v>
+        <v>678.4242941592011</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9501268539259686</v>
+        <v>0.9665768864128068</v>
       </c>
       <c r="J16" t="n">
-        <v>692.6596357342455</v>
+        <v>684.9315044201869</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7713625902268406</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>690.6920471474855</v>
+        <v>681.9659233303619</v>
       </c>
       <c r="M16" t="n">
-        <v>0.7854896713790398</v>
+        <v>0.7886965110996087</v>
       </c>
       <c r="N16" t="n">
-        <v>687.9108150185763</v>
+        <v>684.2198345077824</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0.9783473968596625</v>
       </c>
       <c r="P16" t="n">
-        <v>688.6908733925095</v>
+        <v>682.2869748174954</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8512210391336423</v>
+        <v>0.9325064394698326</v>
       </c>
       <c r="R16" t="n">
-        <v>686.9949071886241</v>
+        <v>679.5214785563428</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9408972809269763</v>
+        <v>0.9535371743722627</v>
       </c>
       <c r="T16" t="n">
-        <v>690.8866135271227</v>
+        <v>678.6133070099613</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0.9520335302342779</v>
       </c>
       <c r="V16" t="n">
-        <v>688.802892084421</v>
+        <v>679.6937446071444</v>
       </c>
       <c r="W16" t="n">
-        <v>0.8496389555063131</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>688.0751800272664</v>
+        <v>675.7065374127189</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.9431598774689406</v>
+        <v>0.9769557770809262</v>
       </c>
       <c r="Z16" t="n">
-        <v>689.3984910395641</v>
+        <v>680.3981406522449</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.8348330947704392</v>
+        <v>0.9578544032197169</v>
       </c>
       <c r="AB16" t="n">
-        <v>687.9084448764222</v>
+        <v>679.682295300527</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.9672876998648922</v>
+        <v>0.8228810925082927</v>
       </c>
       <c r="AD16" t="n">
-        <v>686.4215764105749</v>
+        <v>680.9869848880235</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.6961548156977516</v>
+        <v>0.9648668923716592</v>
       </c>
       <c r="AF16" t="n">
-        <v>688.6562151318194</v>
+        <v>679.5149021636449</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.9998362854139415</v>
+        <v>0.9991476872027681</v>
       </c>
       <c r="AH16" t="n">
-        <v>690.5553295007905</v>
+        <v>678.0397056606977</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.4311173414542909</v>
+        <v>0.9413886187584102</v>
       </c>
       <c r="AJ16" t="n">
-        <v>688.4774068438168</v>
+        <v>678.9711852710725</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.8328065557174729</v>
+        <v>0.6881375424471641</v>
       </c>
       <c r="AL16" t="n">
-        <v>688.3757568550187</v>
+        <v>680.2538965607487</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.8972065089762191</v>
+        <v>0.9468045849777086</v>
       </c>
       <c r="AN16" t="n">
-        <v>691.2942524258392</v>
+        <v>677.6378048139275</v>
       </c>
       <c r="AO16" t="n">
-        <v>1</v>
+        <v>0.8424321995918704</v>
       </c>
       <c r="AP16" t="n">
-        <v>674.4960458624153</v>
+        <v>680.0803218342434</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.9224162474357535</v>
+        <v>0.9584320957404279</v>
       </c>
       <c r="AR16" t="n">
-        <v>685.396575713576</v>
+        <v>681.4727275460044</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.8039870037028044</v>
+        <v>0.8922759778646621</v>
       </c>
       <c r="AT16" t="n">
-        <v>687.330022225662</v>
+        <v>682.8653135088173</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9631416137377981</v>
+        <v>0.8487352641725483</v>
       </c>
       <c r="AV16" t="n">
-        <v>686.7866567147501</v>
+        <v>638.6344273197661</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.9803887639838279</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>685.3393319303564</v>
+        <v>678.9416514499538</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.9693966297954192</v>
+        <v>0.7704188114239733</v>
       </c>
       <c r="AZ16" t="n">
-        <v>689.9616510511585</v>
+        <v>678.4048725068918</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.9950539008733601</v>
+        <v>0.8740504500323212</v>
       </c>
       <c r="BB16" t="n">
-        <v>687.3805957231365</v>
+        <v>676.98093666835</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.7860645235396626</v>
+        <v>0.9251219301010598</v>
       </c>
       <c r="BD16" t="n">
-        <v>692.9224377840817</v>
+        <v>681.5498625053524</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.8469080192205307</v>
+        <v>0.9670644613091056</v>
       </c>
       <c r="BF16" t="n">
-        <v>689.0040605807641</v>
+        <v>684.3059596871539</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.4684535837853819</v>
+        <v>0.9346049887330022</v>
       </c>
       <c r="BH16" t="n">
-        <v>684.7845736357344</v>
+        <v>676.4227417224947</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.8967663631142487</v>
+        <v>0.8884477396405835</v>
       </c>
       <c r="BJ16" t="n">
-        <v>688.3473399529105</v>
+        <v>685.1390128969954</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.9259314317025374</v>
+        <v>1</v>
       </c>
       <c r="BL16" t="n">
-        <v>687.4390965763608</v>
+        <v>681.6671948051967</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.7535707844620569</v>
+        <v>0.9313622207820931</v>
       </c>
       <c r="BN16" t="n">
-        <v>692.4720023389531</v>
+        <v>680.6126338868538</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.9169424731287029</v>
+        <v>0.9477070284005876</v>
       </c>
       <c r="BP16" t="n">
-        <v>692.8329860854305</v>
+        <v>679.9494626551644</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.9367484548913574</v>
+        <v>0.9887397914048073</v>
       </c>
       <c r="BR16" t="n">
-        <v>690.6820983054756</v>
+        <v>679.04473869037</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.8790282806999257</v>
+        <v>0.8722964950224631</v>
       </c>
       <c r="BT16" t="n">
-        <v>690.4935679158441</v>
+        <v>684.0343182420202</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.9207182898073262</v>
+        <v>0.9662361422630147</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>683.3570346077735</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0.9708963957705574</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>684.3910068838799</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>678.9905762758062</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>0.8940952889898298</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>681.35741472427</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0.8517010076797091</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>678.0420869864375</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>680.0423312695405</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0.8613379333796353</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>682.2556220904683</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:73">
+    <row r="17" spans="1:87">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>689.2654270357608</v>
+        <v>690.0245061762001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9385527809421541</v>
+        <v>0.9683473103295215</v>
       </c>
       <c r="D17" t="n">
-        <v>691.0283909960675</v>
+        <v>680.8588415580409</v>
       </c>
       <c r="E17" t="n">
-        <v>0.901097758919853</v>
+        <v>0.9748221474271966</v>
       </c>
       <c r="F17" t="n">
-        <v>697.6371713448475</v>
+        <v>689.1448812250236</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8478921790357692</v>
+        <v>0.9783641005834771</v>
       </c>
       <c r="H17" t="n">
-        <v>694.6393154395039</v>
+        <v>682.6070530045878</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9697119225114529</v>
+        <v>0.9996239630849285</v>
       </c>
       <c r="J17" t="n">
-        <v>696.9150672869843</v>
+        <v>689.1486542437909</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6378230266900566</v>
+        <v>0.9917836098604447</v>
       </c>
       <c r="L17" t="n">
-        <v>694.937991050685</v>
+        <v>686.1676486718126</v>
       </c>
       <c r="M17" t="n">
-        <v>0.7457915284253565</v>
+        <v>0.8744855319736046</v>
       </c>
       <c r="N17" t="n">
-        <v>692.1430475859869</v>
+        <v>688.4333204540716</v>
       </c>
       <c r="O17" t="n">
-        <v>0.974423281265353</v>
+        <v>0.9063812033994726</v>
       </c>
       <c r="P17" t="n">
-        <v>692.9269873184323</v>
+        <v>686.4903899849922</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7956005391332227</v>
+        <v>0.8946006934421832</v>
       </c>
       <c r="R17" t="n">
-        <v>691.2225467114667</v>
+        <v>683.7101772533003</v>
       </c>
       <c r="S17" t="n">
-        <v>0.8682026368829825</v>
+        <v>0.9869322386640365</v>
       </c>
       <c r="T17" t="n">
-        <v>695.1335034322514</v>
+        <v>682.7970932438927</v>
       </c>
       <c r="U17" t="n">
-        <v>0.8605461192287464</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>693.0395610923664</v>
+        <v>683.8833706585141</v>
       </c>
       <c r="W17" t="n">
-        <v>0.7665998139607669</v>
+        <v>0.914928961958587</v>
       </c>
       <c r="X17" t="n">
-        <v>692.3082327545671</v>
+        <v>679.8743326618048</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0.9587333193254847</v>
       </c>
       <c r="Z17" t="n">
-        <v>693.6381017497747</v>
+        <v>684.5915438916077</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.7657609417362615</v>
+        <v>0.938671528704661</v>
       </c>
       <c r="AB17" t="n">
-        <v>692.1406656080462</v>
+        <v>683.8718597612821</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.9505230148670801</v>
+        <v>0.9377903819119857</v>
       </c>
       <c r="AD17" t="n">
-        <v>690.6463211132667</v>
+        <v>685.1835275273198</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.6091714695278471</v>
+        <v>0.9486503818811306</v>
       </c>
       <c r="AF17" t="n">
-        <v>692.8921572004707</v>
+        <v>683.7035654299511</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9400067947853658</v>
+        <v>1</v>
       </c>
       <c r="AH17" t="n">
-        <v>694.8006076400967</v>
+        <v>682.2203687415282</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.4276998766053067</v>
+        <v>0.8206157369207291</v>
       </c>
       <c r="AJ17" t="n">
-        <v>692.7124613943496</v>
+        <v>683.156912061517</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.7703194517880402</v>
+        <v>0.7749806819479215</v>
       </c>
       <c r="AL17" t="n">
-        <v>692.610306210094</v>
+        <v>684.446528248544</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.9047628131517832</v>
+        <v>1</v>
       </c>
       <c r="AN17" t="n">
-        <v>695.5431187453212</v>
+        <v>681.8162701604323</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.9693727875426625</v>
+        <v>0.9136861536185599</v>
       </c>
       <c r="AP17" t="n">
-        <v>678.6570604672316</v>
+        <v>684.2720237663913</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.8704852006170409</v>
+        <v>0.9160451297989503</v>
       </c>
       <c r="AR17" t="n">
-        <v>689.6161070848794</v>
+        <v>685.671847489778</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.8422049528347963</v>
+        <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>691.5593467522125</v>
+        <v>687.0717604268759</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0.9551021376741425</v>
       </c>
       <c r="AV17" t="n">
-        <v>691.0132465127535</v>
+        <v>642.5595891501476</v>
       </c>
       <c r="AW17" t="n">
-        <v>1</v>
+        <v>0.9993567261361556</v>
       </c>
       <c r="AX17" t="n">
-        <v>689.5585707101831</v>
+        <v>683.1272183294891</v>
       </c>
       <c r="AY17" t="n">
-        <v>1</v>
+        <v>0.8732771875097344</v>
       </c>
       <c r="AZ17" t="n">
-        <v>694.2040283376147</v>
+        <v>682.5875256874687</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.9057083916449594</v>
+        <v>0.9923705843098474</v>
       </c>
       <c r="BB17" t="n">
-        <v>691.6101740900095</v>
+        <v>681.155793204633</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.7155505110953445</v>
+        <v>0.9693342472172711</v>
       </c>
       <c r="BD17" t="n">
-        <v>697.1791233314489</v>
+        <v>685.749390689321</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.8046960988654529</v>
+        <v>1</v>
       </c>
       <c r="BF17" t="n">
-        <v>693.2417249884319</v>
+        <v>688.5198902894983</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.5365341380305382</v>
+        <v>0.9283740616190788</v>
       </c>
       <c r="BH17" t="n">
-        <v>689.0009689563974</v>
+        <v>680.5945151013461</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.9012371053528414</v>
+        <v>1</v>
       </c>
       <c r="BJ17" t="n">
-        <v>692.5817479925549</v>
+        <v>689.357226580086</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.8340613739174445</v>
+        <v>0.9426690929714496</v>
       </c>
       <c r="BL17" t="n">
-        <v>691.6689684256984</v>
+        <v>685.8673434345701</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.728625819472534</v>
+        <v>0.9143823903058732</v>
       </c>
       <c r="BN17" t="n">
-        <v>696.7265366718304</v>
+        <v>684.8071826007747</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.89390774685718</v>
+        <v>0.9410116936433627</v>
       </c>
       <c r="BP17" t="n">
-        <v>697.0892451510725</v>
+        <v>684.1404626866657</v>
       </c>
       <c r="BQ17" t="n">
-        <v>0.830198556262958</v>
+        <v>0.9490093296887385</v>
       </c>
       <c r="BR17" t="n">
-        <v>694.9279937901777</v>
+        <v>683.2308635537818</v>
       </c>
       <c r="BS17" t="n">
-        <v>0.9216267222699388</v>
+        <v>0.8652385224722492</v>
       </c>
       <c r="BT17" t="n">
-        <v>694.7385450207611</v>
+        <v>688.2468452059198</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.9770369339930121</v>
+        <v>1</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>687.5660468142042</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.9570529230025835</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>688.6053762361712</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>0.9360735231870626</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>683.1764080360815</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>0.9669792360909744</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>685.5559238433843</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>0.9270140474786356</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>682.2227630659404</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0.9909089831373664</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>684.2338295127195</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0.9546359011318766</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>686.4588724503786</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.8886014842077069</v>
       </c>
     </row>
-    <row r="18" spans="1:73">
+    <row r="18" spans="1:87">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>693.5043819416715</v>
+        <v>694.2671913470929</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9217689028515523</v>
+        <v>0.9455091234687582</v>
       </c>
       <c r="D18" t="n">
-        <v>695.2759691558709</v>
+        <v>685.0547024116037</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7715725925244783</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>701.9158295836374</v>
+        <v>693.383241323607</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7601465566473565</v>
+        <v>0.9988457512651802</v>
       </c>
       <c r="H18" t="n">
-        <v>698.9041170329389</v>
+        <v>686.812148026948</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>701.1904242255935</v>
+        <v>693.3870329695969</v>
       </c>
       <c r="K18" t="n">
-        <v>0.5535617025050453</v>
+        <v>0.9415989380701155</v>
       </c>
       <c r="L18" t="n">
-        <v>699.2041910848131</v>
+        <v>690.3911063980399</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6783081555864204</v>
+        <v>0.9501268539259686</v>
       </c>
       <c r="N18" t="n">
-        <v>696.3960051032496</v>
+        <v>692.6681559556415</v>
       </c>
       <c r="O18" t="n">
-        <v>0.8708647400579779</v>
+        <v>0.7713625902268406</v>
       </c>
       <c r="P18" t="n">
-        <v>697.1836945471426</v>
+        <v>690.7154829394924</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.6868590053770643</v>
+        <v>0.7854896713790398</v>
       </c>
       <c r="R18" t="n">
-        <v>695.4710659157727</v>
+        <v>687.9210247762576</v>
       </c>
       <c r="S18" t="n">
-        <v>0.8721284678244303</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>699.4006167287037</v>
+        <v>687.0031833603597</v>
       </c>
       <c r="U18" t="n">
-        <v>0.8975549115734541</v>
+        <v>0.9408972809269763</v>
       </c>
       <c r="V18" t="n">
-        <v>697.2968045082741</v>
+        <v>688.095116144926</v>
       </c>
       <c r="W18" t="n">
-        <v>0.7264045335383386</v>
+        <v>0.9526913050342959</v>
       </c>
       <c r="X18" t="n">
-        <v>696.5619826823115</v>
+        <v>684.0649293422352</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.9727763986836134</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
-        <v>697.8981864471926</v>
+        <v>688.8069464551065</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.6498542637899177</v>
+        <v>0.8496389555063131</v>
       </c>
       <c r="AB18" t="n">
-        <v>696.3936116897087</v>
+        <v>688.083545610283</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8944206556691319</v>
+        <v>0.9431598774689406</v>
       </c>
       <c r="AD18" t="n">
-        <v>694.892042442268</v>
+        <v>689.4019691676035</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.5518180432095664</v>
+        <v>0.8348330947704392</v>
       </c>
       <c r="AF18" t="n">
-        <v>697.1486984184255</v>
+        <v>687.9143786444114</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.8710918716047277</v>
+        <v>0.9672876998648922</v>
       </c>
       <c r="AH18" t="n">
-        <v>699.0661649202071</v>
+        <v>686.4234337345027</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.4214411886664039</v>
+        <v>0.6961548156977516</v>
       </c>
       <c r="AJ18" t="n">
-        <v>696.9681452612734</v>
+        <v>687.3648816100703</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.6826231897140941</v>
+        <v>0.8774208082431533</v>
       </c>
       <c r="AL18" t="n">
-        <v>696.8655020339992</v>
+        <v>688.6611838474535</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.9006540610357814</v>
+        <v>0.9998362854139415</v>
       </c>
       <c r="AN18" t="n">
-        <v>699.8121398869663</v>
+        <v>686.0172061492707</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.9119169063296234</v>
+        <v>0.9495123548377272</v>
       </c>
       <c r="AP18" t="n">
-        <v>682.8410842800877</v>
+        <v>688.4857792022697</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.7432605698336283</v>
+        <v>0.8328065557174729</v>
       </c>
       <c r="AR18" t="n">
-        <v>693.8567885700044</v>
+        <v>689.892783734511</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.8517705242097701</v>
+        <v>0.9282736741453188</v>
       </c>
       <c r="AT18" t="n">
-        <v>695.8094943266933</v>
+        <v>691.2997868363752</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.9851675892272197</v>
+        <v>1</v>
       </c>
       <c r="AV18" t="n">
-        <v>695.2607511975926</v>
+        <v>646.5140961521087</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.9377509820760215</v>
+        <v>0.9224162474357535</v>
       </c>
       <c r="AX18" t="n">
-        <v>693.7989692991359</v>
+        <v>687.3350330103201</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.9360105875393471</v>
+        <v>0.9631416137377981</v>
       </c>
       <c r="AZ18" t="n">
-        <v>698.4667847250321</v>
+        <v>686.7925183638297</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.8616768828588556</v>
+        <v>0.9803887639838279</v>
       </c>
       <c r="BB18" t="n">
-        <v>695.860566960025</v>
+        <v>685.3532327956079</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.6410304046836057</v>
+        <v>0.9693966297954192</v>
       </c>
       <c r="BD18" t="n">
-        <v>701.4556901452663</v>
+        <v>689.9707220464039</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.6982035632937382</v>
+        <v>0.9950539008733601</v>
       </c>
       <c r="BF18" t="n">
-        <v>697.4999298781664</v>
+        <v>692.7551558401867</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.5848142471007914</v>
+        <v>0.8469080192205307</v>
       </c>
       <c r="BH18" t="n">
-        <v>693.23861808045</v>
+        <v>684.7889671389296</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.9111442178205773</v>
+        <v>0.8967663631142487</v>
       </c>
       <c r="BJ18" t="n">
-        <v>696.8368072964762</v>
+        <v>693.5966340054746</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.7530865354250017</v>
+        <v>0.9798764399241751</v>
       </c>
       <c r="BL18" t="n">
-        <v>695.9196448946536</v>
+        <v>690.089275270391</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.7154815835346195</v>
+        <v>0.9989692789581693</v>
       </c>
       <c r="BN18" t="n">
-        <v>701.0010278987471</v>
+        <v>689.0236940861211</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.7619386473817606</v>
+        <v>1</v>
       </c>
       <c r="BP18" t="n">
-        <v>701.3654004988999</v>
+        <v>688.3535385363981</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.7539866485737123</v>
+        <v>0.9259314317025374</v>
       </c>
       <c r="BR18" t="n">
-        <v>699.1941470800957</v>
+        <v>687.4392186161939</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.8344058654632507</v>
+        <v>0.7535707844620569</v>
       </c>
       <c r="BT18" t="n">
-        <v>699.0038116622978</v>
+        <v>692.4807531942287</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.934962029115663</v>
+        <v>0.9169424731287029</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>691.7965549948354</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>692.8410661142375</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>0.9367484548913574</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>687.3844792433697</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>0.9652808372970026</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>689.7762688913415</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>0.9561554371364414</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>686.4258406504599</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0.962310359469016</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>688.4473877375023</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0.9513643208823546</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>690.6838059281284</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0.8790282806999257</v>
       </c>
     </row>
-    <row r="19" spans="1:73">
+    <row r="19" spans="1:87">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>697.7638332638384</v>
+        <v>698.5302450324621</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7978181008671072</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>699.5437468548419</v>
+        <v>689.272484091808</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6936790998528962</v>
+        <v>0.9385527809421541</v>
       </c>
       <c r="F19" t="n">
-        <v>706.2135797867406</v>
+        <v>697.6421181605059</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6885369195697055</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>703.1885119859733</v>
+        <v>691.0388664262816</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9486104947347053</v>
+        <v>0.901097758919853</v>
       </c>
       <c r="J19" t="n">
-        <v>705.4849937500733</v>
+        <v>697.6459277976048</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4568211167038354</v>
+        <v>0.8478921790357692</v>
       </c>
       <c r="L19" t="n">
-        <v>703.4899344498698</v>
+        <v>694.6355837090438</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5500255435133272</v>
+        <v>0.9697119225114529</v>
       </c>
       <c r="N19" t="n">
-        <v>700.6689747703641</v>
+        <v>696.9236282124923</v>
       </c>
       <c r="O19" t="n">
-        <v>0.8077292369561216</v>
+        <v>0.6378230266900566</v>
       </c>
       <c r="P19" t="n">
-        <v>701.4602822786404</v>
+        <v>694.9615408809958</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.6648609908758345</v>
+        <v>0.7457915284253565</v>
       </c>
       <c r="R19" t="n">
-        <v>699.739752001542</v>
+        <v>692.1533083252145</v>
       </c>
       <c r="S19" t="n">
-        <v>0.7850553172461546</v>
+        <v>0.974423281265353</v>
       </c>
       <c r="T19" t="n">
-        <v>703.6872406164798</v>
+        <v>691.2308645593621</v>
       </c>
       <c r="U19" t="n">
-        <v>0.9431836978304905</v>
+        <v>0.8682026368829825</v>
       </c>
       <c r="V19" t="n">
-        <v>701.5739095321439</v>
+        <v>692.3282682663802</v>
       </c>
       <c r="W19" t="n">
-        <v>0.6543052148718957</v>
+        <v>0.936392473482999</v>
       </c>
       <c r="X19" t="n">
-        <v>700.8357170104996</v>
+        <v>688.2776146540102</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.8932990569194933</v>
+        <v>0.9750604940367935</v>
       </c>
       <c r="Z19" t="n">
-        <v>702.1780323318177</v>
+        <v>693.0436355427413</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.6005646355955123</v>
+        <v>0.7665998139607669</v>
       </c>
       <c r="AB19" t="n">
-        <v>700.6665703214093</v>
+        <v>692.3166400475297</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.8374990658386489</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>699.1580275975788</v>
+        <v>693.6415970088742</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.4634664496855631</v>
+        <v>0.7657609417362615</v>
       </c>
       <c r="AF19" t="n">
-        <v>701.4251259856837</v>
+        <v>692.1466290070257</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.7367039087463233</v>
+        <v>0.9505230148670801</v>
       </c>
       <c r="AH19" t="n">
-        <v>703.3512885411219</v>
+        <v>690.6481878396214</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.3871831371566988</v>
+        <v>0.6091714695278471</v>
       </c>
       <c r="AJ19" t="n">
-        <v>701.2437456445882</v>
+        <v>691.5943811167322</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.6086197738674026</v>
+        <v>0.9376452071283107</v>
       </c>
       <c r="AL19" t="n">
-        <v>701.1406315267342</v>
+        <v>692.8971505574768</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.8916895462363458</v>
+        <v>0.9400067947853658</v>
       </c>
       <c r="AN19" t="n">
-        <v>704.1006030507746</v>
+        <v>690.2398999804428</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.8435146278903283</v>
+        <v>1</v>
       </c>
       <c r="AP19" t="n">
-        <v>687.047404500983</v>
+        <v>692.7208753418786</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6840126675468573</v>
+        <v>0.7703194517880402</v>
       </c>
       <c r="AR19" t="n">
-        <v>698.1179073689507</v>
+        <v>694.1348234802034</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.9119885618550145</v>
+        <v>0.9035258913163322</v>
       </c>
       <c r="AT19" t="n">
-        <v>700.0797521491044</v>
+        <v>695.5486799373151</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.9192701084299775</v>
+        <v>0.9693727875426625</v>
       </c>
       <c r="AV19" t="n">
-        <v>699.5284579692675</v>
+        <v>650.497235525649</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.8960263643039164</v>
+        <v>0.8704852006170409</v>
       </c>
       <c r="AX19" t="n">
-        <v>698.059814897215</v>
+        <v>691.5643826924467</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.9092389734532018</v>
+        <v>1</v>
       </c>
       <c r="AZ19" t="n">
-        <v>702.7492074134105</v>
+        <v>691.0191377359751</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.7925749807992718</v>
+        <v>1</v>
       </c>
       <c r="BB19" t="n">
-        <v>700.1310615331829</v>
+        <v>689.5725426412746</v>
       </c>
       <c r="BC19" t="n">
-        <v>0.5906232799370803</v>
+        <v>1</v>
       </c>
       <c r="BD19" t="n">
-        <v>705.7514254255341</v>
+        <v>694.2131437766013</v>
       </c>
       <c r="BE19" t="n">
-        <v>0.6465848752309379</v>
+        <v>0.9057083916449594</v>
       </c>
       <c r="BF19" t="n">
-        <v>701.7779624499676</v>
+        <v>697.0110435392191</v>
       </c>
       <c r="BG19" t="n">
-        <v>0.6302812823201147</v>
+        <v>0.8046960988654529</v>
       </c>
       <c r="BH19" t="n">
-        <v>697.4968082078923</v>
+        <v>689.0053850352451</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.7768800748136605</v>
+        <v>0.9012371053528414</v>
       </c>
       <c r="BJ19" t="n">
-        <v>701.1118050646741</v>
+        <v>697.8565223731613</v>
       </c>
       <c r="BK19" t="n">
-        <v>0.726657896773195</v>
+        <v>0.9667526592770308</v>
       </c>
       <c r="BL19" t="n">
-        <v>700.1904131832267</v>
+        <v>694.3322775126592</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.681328999889123</v>
+        <v>1</v>
       </c>
       <c r="BN19" t="n">
-        <v>705.2947632197031</v>
+        <v>693.2614555428927</v>
       </c>
       <c r="BO19" t="n">
-        <v>0.7200117037166994</v>
+        <v>0.915953712487286</v>
       </c>
       <c r="BP19" t="n">
-        <v>705.6607393289127</v>
+        <v>692.5879774043617</v>
       </c>
       <c r="BQ19" t="n">
-        <v>0.6939087270377617</v>
+        <v>0.8340613739174445</v>
       </c>
       <c r="BR19" t="n">
-        <v>703.4798453752297</v>
+        <v>691.6690910776063</v>
       </c>
       <c r="BS19" t="n">
-        <v>0.8800769515490927</v>
+        <v>0.728625819472534</v>
       </c>
       <c r="BT19" t="n">
-        <v>703.2886550404545</v>
+        <v>696.7353294069467</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.9381136906916354</v>
+        <v>0.89390774685718</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>696.0478463496671</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.9763929257170825</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>697.0973637180788</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.830198556262958</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>691.6140770976708</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0.9640490609405624</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>694.0177370681416</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>690.6506069399958</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.9390159220989244</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>692.6822931438887</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.9715623146554813</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>694.9297097237176</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0.9216267222699388</v>
       </c>
     </row>
-    <row r="20" spans="1:73">
+    <row r="20" spans="1:87">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>702.0430682022613</v>
+        <v>702.8129544323077</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7389227062633683</v>
+        <v>0.8987157499385394</v>
       </c>
       <c r="D20" t="n">
-        <v>703.8310112929805</v>
+        <v>693.511473798654</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5428413211025694</v>
+        <v>0.9217689028515523</v>
       </c>
       <c r="F20" t="n">
-        <v>710.5297091541571</v>
+        <v>701.9207989357204</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6030821797746162</v>
+        <v>0.9408324645547577</v>
       </c>
       <c r="H20" t="n">
-        <v>707.4917874986072</v>
+        <v>695.2864954025888</v>
       </c>
       <c r="I20" t="n">
-        <v>0.8690650421865099</v>
+        <v>0.7715725925244783</v>
       </c>
       <c r="J20" t="n">
-        <v>709.7980630604234</v>
+        <v>701.9246259278148</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3669752999630116</v>
+        <v>0.7601465566473565</v>
       </c>
       <c r="L20" t="n">
-        <v>707.7945083458549</v>
+        <v>698.9003678048243</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5178881000974622</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>704.9612437873307</v>
+        <v>701.1990244246238</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7071059336113648</v>
+        <v>0.5535617025050453</v>
       </c>
       <c r="P20" t="n">
-        <v>705.7560377129258</v>
+        <v>699.2278510095026</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.6101492468320242</v>
+        <v>0.6783081555864204</v>
       </c>
       <c r="R20" t="n">
-        <v>704.0278921687745</v>
+        <v>696.4063151001711</v>
       </c>
       <c r="S20" t="n">
-        <v>0.6468220604282571</v>
+        <v>0.8708647400579779</v>
       </c>
       <c r="T20" t="n">
-        <v>707.9926622955796</v>
+        <v>695.4794240409</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9589104624996433</v>
+        <v>0.8721284678244303</v>
       </c>
       <c r="V20" t="n">
-        <v>705.8701633639762</v>
+        <v>696.5821142228767</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5573823068257179</v>
+        <v>0.8626967500706036</v>
       </c>
       <c r="X20" t="n">
-        <v>705.1287229391313</v>
+        <v>692.5116757971298</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8155023597055792</v>
+        <v>0.8486911412387578</v>
       </c>
       <c r="Z20" t="n">
-        <v>706.4769266036501</v>
+        <v>697.300898354512</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.4972168712240817</v>
+        <v>0.7264045335383386</v>
       </c>
       <c r="AB20" t="n">
-        <v>704.9588287031482</v>
+        <v>696.5704302730225</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7075886834855697</v>
+        <v>0.9727763986836134</v>
       </c>
       <c r="AD20" t="n">
-        <v>703.4435637791992</v>
+        <v>697.9016982511321</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.4037510542899233</v>
+        <v>0.6498542637899177</v>
       </c>
       <c r="AF20" t="n">
-        <v>705.7207271022455</v>
+        <v>696.3996037177941</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.6478264683545715</v>
+        <v>0.8944206556691319</v>
       </c>
       <c r="AH20" t="n">
-        <v>707.655265702841</v>
+        <v>694.8939182568841</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.3463219238400028</v>
+        <v>0.5518180432095664</v>
       </c>
       <c r="AJ20" t="n">
-        <v>705.5385497442938</v>
+        <v>695.8446977815028</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.5786169044917013</v>
+        <v>0.9331457204072231</v>
       </c>
       <c r="AL20" t="n">
-        <v>705.434981888299</v>
+        <v>697.1537155786143</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.9033300298118777</v>
+        <v>0.8710918716047277</v>
       </c>
       <c r="AN20" t="n">
-        <v>708.4077954367459</v>
+        <v>694.4836388539486</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.7919676358019184</v>
+        <v>0.9807115290063482</v>
       </c>
       <c r="AP20" t="n">
-        <v>691.2753083299178</v>
+        <v>696.9765993852179</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.6284405651765813</v>
+        <v>0.6826231897140941</v>
       </c>
       <c r="AR20" t="n">
-        <v>702.3987506817184</v>
+        <v>698.3972539268552</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.948266236699588</v>
+        <v>0.9079354739474189</v>
       </c>
       <c r="AT20" t="n">
-        <v>704.3694074194456</v>
+        <v>699.8177269296956</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.8362470427821297</v>
+        <v>0.9119169063296234</v>
       </c>
       <c r="AV20" t="n">
-        <v>703.815654027778</v>
+        <v>654.5082944707689</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.8180162094056738</v>
+        <v>0.7432605698336283</v>
       </c>
       <c r="AX20" t="n">
-        <v>702.3403947044201</v>
+        <v>695.8145545758689</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.8596716971947385</v>
+        <v>0.9851675892272197</v>
       </c>
       <c r="AZ20" t="n">
-        <v>707.0505836027501</v>
+        <v>695.2666710039045</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.7194766210608555</v>
+        <v>0.9377509820760215</v>
       </c>
       <c r="BB20" t="n">
-        <v>704.4209450094831</v>
+        <v>693.8130099416329</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.5438217032224327</v>
+        <v>0.9360105875393471</v>
       </c>
       <c r="BD20" t="n">
-        <v>710.0656163722522</v>
+        <v>698.4759430799132</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.5748608875864136</v>
+        <v>0.8616768828588556</v>
       </c>
       <c r="BF20" t="n">
-        <v>706.0751099038355</v>
+        <v>701.2868405865954</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.7179346604055743</v>
+        <v>0.6982035632937382</v>
       </c>
       <c r="BH20" t="n">
-        <v>701.7748265387243</v>
+        <v>693.2430559902928</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.7629558429883823</v>
+        <v>0.9111442178205773</v>
       </c>
       <c r="BJ20" t="n">
-        <v>705.4060284971487</v>
+        <v>702.136178883146</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.6423398884452819</v>
+        <v>0.9342743687065794</v>
       </c>
       <c r="BL20" t="n">
-        <v>704.4805604914176</v>
+        <v>698.5956373613748</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.6511479896168567</v>
+        <v>0.9013089745765763</v>
       </c>
       <c r="BN20" t="n">
-        <v>709.6070298346986</v>
+        <v>697.5197541710896</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.6283685677917924</v>
+        <v>0.966207345560841</v>
       </c>
       <c r="BP20" t="n">
-        <v>709.9745488411106</v>
+        <v>696.8430664905565</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.6215509350446736</v>
+        <v>0.7530865354250017</v>
       </c>
       <c r="BR20" t="n">
-        <v>707.7843758755798</v>
+        <v>695.919768138019</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.7833740470941664</v>
+        <v>0.7154815835346195</v>
       </c>
       <c r="BT20" t="n">
-        <v>707.5923623552309</v>
+        <v>701.0098610440739</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.925362893698328</v>
+        <v>0.7619386473817606</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>700.3192080786989</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0.9181174297566708</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>701.373556247695</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0.7539866485737123</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>695.8644887989849</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0.9976359780230791</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>698.2796155737846</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>0.9910551407298348</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>694.8963491345484</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0.9918918867730366</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>696.9378329318789</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>699.195871037146</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0.8344058654632507</v>
       </c>
     </row>
-    <row r="21" spans="1:73">
+    <row r="21" spans="1:87">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>706.3413739569405</v>
+        <v>707.1146067466298</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5945432557666437</v>
+        <v>0.8974012283050383</v>
       </c>
       <c r="D21" t="n">
-        <v>708.1370496702867</v>
+        <v>697.7709587321416</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4659653174892349</v>
+        <v>0.7978181008671072</v>
       </c>
       <c r="F21" t="n">
-        <v>714.8635048858869</v>
+        <v>706.2185708492505</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5366838695075088</v>
+        <v>0.9388440117002208</v>
       </c>
       <c r="H21" t="n">
-        <v>711.8132307708407</v>
+        <v>699.5543221558694</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7543987598457892</v>
+        <v>0.6936790998528962</v>
       </c>
       <c r="J21" t="n">
-        <v>714.128919356644</v>
+        <v>706.2224145602265</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2979538218110476</v>
+        <v>0.6885369195697055</v>
       </c>
       <c r="L21" t="n">
-        <v>712.1171999727685</v>
+        <v>703.1847458853815</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4850538610500793</v>
+        <v>0.9486104947347053</v>
       </c>
       <c r="N21" t="n">
-        <v>709.2720993541491</v>
+        <v>705.493631792036</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6028826918816459</v>
+        <v>0.4568211167038354</v>
       </c>
       <c r="P21" t="n">
-        <v>710.0702480499987</v>
+        <v>703.5137005250126</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.5933499800862621</v>
+        <v>0.5500255435133272</v>
       </c>
       <c r="R21" t="n">
-        <v>708.3347736174703</v>
+        <v>700.6793323011275</v>
       </c>
       <c r="S21" t="n">
-        <v>0.6016034495310358</v>
+        <v>0.8077292369561216</v>
       </c>
       <c r="T21" t="n">
-        <v>712.3161689660031</v>
+        <v>699.7481490049732</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9127399422126995</v>
+        <v>0.7850553172461546</v>
       </c>
       <c r="V21" t="n">
-        <v>710.1848532037706</v>
+        <v>700.8559412144155</v>
       </c>
       <c r="W21" t="n">
-        <v>0.5121958155985806</v>
+        <v>0.79500102957412</v>
       </c>
       <c r="X21" t="n">
-        <v>709.4402876682067</v>
+        <v>696.766399971594</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.7387974400693423</v>
+        <v>0.8982116379881722</v>
       </c>
       <c r="Z21" t="n">
-        <v>710.7941564626897</v>
+        <v>701.5780220904188</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.441012904637763</v>
+        <v>0.6543052148718957</v>
       </c>
       <c r="AB21" t="n">
-        <v>709.2696740349255</v>
+        <v>700.844203486761</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.6554059647291968</v>
+        <v>0.8932990569194933</v>
       </c>
       <c r="AD21" t="n">
-        <v>707.7479381871291</v>
+        <v>702.1815600943771</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.3685997013603569</v>
+        <v>0.6005646355955123</v>
       </c>
       <c r="AF21" t="n">
-        <v>710.0347889681107</v>
+        <v>700.6725899767167</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.5469935013354515</v>
+        <v>0.8374990658386489</v>
       </c>
       <c r="AH21" t="n">
-        <v>711.9773836053643</v>
+        <v>699.1599121862911</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.3423949396478441</v>
+        <v>0.4634664496855631</v>
       </c>
       <c r="AJ21" t="n">
-        <v>709.8518447603905</v>
+        <v>700.1151188043821</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.4786545851978902</v>
+        <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>709.7478403186938</v>
+        <v>701.4301661108657</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.9288180148530428</v>
+        <v>0.7367039087463233</v>
       </c>
       <c r="AN21" t="n">
-        <v>712.7330042448805</v>
+        <v>698.747709969788</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.6710751692784289</v>
+        <v>0.9694901426712904</v>
       </c>
       <c r="AP21" t="n">
-        <v>695.5240829668921</v>
+        <v>701.2522385322878</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.5876481947786855</v>
+        <v>0.6086197738674026</v>
       </c>
       <c r="AR21" t="n">
-        <v>706.6986057083075</v>
+        <v>702.6793622744666</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.9339494972088422</v>
+        <v>0.9558535593493669</v>
       </c>
       <c r="AT21" t="n">
-        <v>708.6777473377171</v>
+        <v>704.1062150135168</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.7098401343190912</v>
+        <v>0.8435146278903283</v>
       </c>
       <c r="AV21" t="n">
-        <v>708.1216265731242</v>
+        <v>658.5465601874681</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.8091225085280315</v>
+        <v>0.6840126675468573</v>
       </c>
       <c r="AX21" t="n">
-        <v>706.6399959207514</v>
+        <v>700.0848358605868</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.7818255687666226</v>
+        <v>0.9192701084299775</v>
       </c>
       <c r="AZ21" t="n">
-        <v>711.3702004930508</v>
+        <v>699.5344053676184</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.6145200635452839</v>
+        <v>0.8960263643039164</v>
       </c>
       <c r="BB21" t="n">
-        <v>708.7295045889259</v>
+        <v>698.073921896683</v>
       </c>
       <c r="BC21" t="n">
-        <v>0.5235840854543123</v>
+        <v>0.9092389734532018</v>
       </c>
       <c r="BD21" t="n">
-        <v>714.3975501854204</v>
+        <v>702.7584071563396</v>
       </c>
       <c r="BE21" t="n">
-        <v>0.5650529592865972</v>
+        <v>0.7925749807992718</v>
       </c>
       <c r="BF21" t="n">
-        <v>710.39065943977</v>
+        <v>705.5818341823157</v>
       </c>
       <c r="BG21" t="n">
-        <v>0.7828121192930046</v>
+        <v>0.6465848752309379</v>
       </c>
       <c r="BH21" t="n">
-        <v>706.0719602729458</v>
+        <v>697.5012672040724</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.6812205121387556</v>
+        <v>0.7768800748136605</v>
       </c>
       <c r="BJ21" t="n">
-        <v>709.7187647938999</v>
+        <v>706.4348907354289</v>
       </c>
       <c r="BK21" t="n">
-        <v>0.6369624658319234</v>
+        <v>0.8751008671365823</v>
       </c>
       <c r="BL21" t="n">
-        <v>708.7893740192263</v>
+        <v>702.8786420165377</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.6623394651375928</v>
+        <v>0.9448294218395593</v>
       </c>
       <c r="BN21" t="n">
-        <v>713.9371149437334</v>
+        <v>701.797877170712</v>
       </c>
       <c r="BO21" t="n">
-        <v>0.5791018062515861</v>
+        <v>0.8689281505504738</v>
       </c>
       <c r="BP21" t="n">
-        <v>714.3061162354941</v>
+        <v>701.1180929949825</v>
       </c>
       <c r="BQ21" t="n">
-        <v>0.5484445501242553</v>
+        <v>0.726657896773195</v>
       </c>
       <c r="BR21" t="n">
-        <v>712.107025781146</v>
+        <v>700.190536997432</v>
       </c>
       <c r="BS21" t="n">
-        <v>0.8199500924372319</v>
+        <v>0.681328999889123</v>
       </c>
       <c r="BT21" t="n">
-        <v>711.9142208066272</v>
+        <v>705.3036353056102</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.9630425541894808</v>
+        <v>0.7200117037166994</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>704.6099273819312</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0.8414020415790602</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>705.6689309030862</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.6939087270377617</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>700.135001547312</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>702.5611916082704</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0.9658567259198532</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>699.1623544341173</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0.8858923375394342</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>701.2132943014728</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0.9496353435414745</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>703.4815770684139</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0.8800769515490927</v>
       </c>
     </row>
-    <row r="22" spans="1:73">
+    <row r="22" spans="1:87">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>710.6580377278758</v>
+        <v>711.4344891754283</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4932466991905318</v>
+        <v>0.8005127526216052</v>
       </c>
       <c r="D22" t="n">
-        <v>712.4611491867607</v>
+        <v>702.0502260922707</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4077978609914054</v>
+        <v>0.7389227062633683</v>
       </c>
       <c r="F22" t="n">
-        <v>719.2142541819297</v>
+        <v>710.534721101096</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4723375441523912</v>
+        <v>0.8845557712476897</v>
       </c>
       <c r="H22" t="n">
-        <v>716.1521290026739</v>
+        <v>703.8416338861234</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6447809298168681</v>
+        <v>0.5428413211025694</v>
       </c>
       <c r="J22" t="n">
-        <v>718.4768498387352</v>
+        <v>710.5385808948404</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2761356360600207</v>
+        <v>0.6030821797746162</v>
       </c>
       <c r="L22" t="n">
-        <v>716.4572965306106</v>
+        <v>707.4880051507153</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4498714652956298</v>
+        <v>0.8690650421865099</v>
       </c>
       <c r="N22" t="n">
-        <v>713.6008286708194</v>
+        <v>709.806737514729</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5406461505500315</v>
+        <v>0.3669752999630116</v>
       </c>
       <c r="P22" t="n">
-        <v>714.402200489859</v>
+        <v>707.8183766275259</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.5967957120354062</v>
+        <v>0.5178881000974622</v>
       </c>
       <c r="R22" t="n">
-        <v>712.6596835476295</v>
+        <v>704.9716471280835</v>
       </c>
       <c r="S22" t="n">
-        <v>0.4693733813695889</v>
+        <v>0.7071059336113648</v>
       </c>
       <c r="T22" t="n">
-        <v>716.6570478277505</v>
+        <v>704.036326651582</v>
       </c>
       <c r="U22" t="n">
-        <v>0.9233909128498877</v>
+        <v>0.6468220604282571</v>
       </c>
       <c r="V22" t="n">
-        <v>714.5172662515273</v>
+        <v>705.1490364409965</v>
       </c>
       <c r="W22" t="n">
-        <v>0.4601073466885549</v>
+        <v>0.7473542603742779</v>
       </c>
       <c r="X22" t="n">
-        <v>713.7696983977256</v>
+        <v>701.0410743774025</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6898297411092712</v>
+        <v>0.8518438670723631</v>
       </c>
       <c r="Z22" t="n">
-        <v>715.1290091089365</v>
+        <v>705.8742939504615</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.4111075624885658</v>
+        <v>0.5573823068257179</v>
       </c>
       <c r="AB22" t="n">
-        <v>713.598393516741</v>
+        <v>705.1372468887455</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.5659978381848502</v>
+        <v>0.8155023597055792</v>
       </c>
       <c r="AD22" t="n">
-        <v>712.0704380213684</v>
+        <v>706.4804697386094</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.3396869820165576</v>
+        <v>0.4972168712240817</v>
       </c>
       <c r="AF22" t="n">
-        <v>714.3665987832794</v>
+        <v>704.9648749837934</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.4616207550160007</v>
+        <v>0.7075886834855697</v>
       </c>
       <c r="AH22" t="n">
-        <v>716.3169294486919</v>
+        <v>703.445456827842</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.3194554686957284</v>
+        <v>0.4037510542899233</v>
       </c>
       <c r="AJ22" t="n">
-        <v>714.182917892878</v>
+        <v>704.4049313853701</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.4764249351972454</v>
+        <v>0.9685904314956348</v>
       </c>
       <c r="AL22" t="n">
-        <v>714.0784940179184</v>
+        <v>705.725789354231</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.9279990320936484</v>
+        <v>0.6478264683545715</v>
       </c>
       <c r="AN22" t="n">
-        <v>717.0755166751783</v>
+        <v>703.0314005279612</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.6049440393533562</v>
+        <v>0.9669982900330245</v>
       </c>
       <c r="AP22" t="n">
-        <v>699.793015611906</v>
+        <v>705.5470799830882</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.5537115327497306</v>
+        <v>0.5786169044917013</v>
       </c>
       <c r="AR22" t="n">
-        <v>711.0167596487179</v>
+        <v>706.9804357230373</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.9320262876385661</v>
+        <v>0.7973117540958176</v>
       </c>
       <c r="AT22" t="n">
-        <v>713.0040591039188</v>
+        <v>708.4134313887786</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.6500660786090344</v>
+        <v>0.7919676358019184</v>
       </c>
       <c r="AV22" t="n">
-        <v>712.445662805306</v>
+        <v>662.6113198757469</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.7015789936857592</v>
+        <v>0.6284405651765813</v>
       </c>
       <c r="AX22" t="n">
-        <v>710.9579057462088</v>
+        <v>704.3745137466003</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.6775684861850428</v>
+        <v>0.8362470427821297</v>
       </c>
       <c r="AZ22" t="n">
-        <v>715.7073452843125</v>
+        <v>703.8216280271165</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.5451477867610609</v>
+        <v>0.8180162094056738</v>
       </c>
       <c r="BB22" t="n">
-        <v>713.056027471511</v>
+        <v>702.354565706425</v>
       </c>
       <c r="BC22" t="n">
-        <v>0.4985853969857623</v>
+        <v>0.8596716971947385</v>
       </c>
       <c r="BD22" t="n">
-        <v>718.7465140650392</v>
+        <v>707.0598232058803</v>
       </c>
       <c r="BE22" t="n">
-        <v>0.4846173854747394</v>
+        <v>0.7194766210608555</v>
       </c>
       <c r="BF22" t="n">
-        <v>714.7238982577712</v>
+        <v>709.8953115263798</v>
       </c>
       <c r="BG22" t="n">
-        <v>0.8555357519018313</v>
+        <v>0.5748608875864136</v>
       </c>
       <c r="BH22" t="n">
-        <v>710.3874966105572</v>
+        <v>701.7793058765841</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.6367292446781609</v>
+        <v>0.7629558429883823</v>
       </c>
       <c r="BJ22" t="n">
-        <v>714.0493011549279</v>
+        <v>710.7519451300097</v>
       </c>
       <c r="BK22" t="n">
-        <v>0.5879881878318773</v>
+        <v>0.7911993563963645</v>
       </c>
       <c r="BL22" t="n">
-        <v>713.1161409666528</v>
+        <v>707.1805786781481</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.676981988446332</v>
+        <v>0.8508395181739161</v>
       </c>
       <c r="BN22" t="n">
-        <v>718.2843057468075</v>
+        <v>706.0951117417598</v>
       </c>
       <c r="BO22" t="n">
-        <v>0.5396728349536863</v>
+        <v>0.852381099151487</v>
       </c>
       <c r="BP22" t="n">
-        <v>718.6547287120628</v>
+        <v>705.4123441176396</v>
       </c>
       <c r="BQ22" t="n">
-        <v>0.5097917261879922</v>
+        <v>0.6423398884452819</v>
       </c>
       <c r="BR22" t="n">
-        <v>716.4470822919282</v>
+        <v>704.4806848558452</v>
       </c>
       <c r="BS22" t="n">
-        <v>0.825242430792644</v>
+        <v>0.6511479896168567</v>
       </c>
       <c r="BT22" t="n">
-        <v>716.2535175946433</v>
+        <v>709.6159393915557</v>
       </c>
       <c r="BU22" t="n">
-        <v>0.9368012107196677</v>
+        <v>0.6283685677917924</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>708.9192914593639</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.8993061593154023</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>709.9827748842523</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0.6215509350446736</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>704.4249025426518</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0.9212249749882722</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>706.8617523715991</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0.8659466534163824</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>703.4479100387027</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0.8612427249382897</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>705.5079644526705</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0.9060887466760139</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>707.7861150175212</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0.7833740470941664</v>
       </c>
     </row>
-    <row r="23" spans="1:73">
+    <row r="23" spans="1:87">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>714.9923467150674</v>
+        <v>715.7718889187032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4137958176846342</v>
+        <v>0.7584769356718495</v>
       </c>
       <c r="D23" t="n">
-        <v>716.8025970424023</v>
+        <v>706.3485630790415</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3596559942089547</v>
+        <v>0.5945432557666437</v>
       </c>
       <c r="F23" t="n">
-        <v>723.5812442422859</v>
+        <v>714.868536891257</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067702084085361</v>
+        <v>0.8166400551777797</v>
       </c>
       <c r="H23" t="n">
-        <v>720.5077693941064</v>
+        <v>708.147717793351</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5161820263761256</v>
+        <v>0.4659653174892349</v>
       </c>
       <c r="J23" t="n">
-        <v>722.8411417066968</v>
+        <v>714.8724121316561</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2373596982091986</v>
+        <v>0.5366838695075088</v>
       </c>
       <c r="L23" t="n">
-        <v>720.8140852193812</v>
+        <v>711.8094328008257</v>
       </c>
       <c r="M23" t="n">
-        <v>0.41700745908793</v>
+        <v>0.7543987598457892</v>
       </c>
       <c r="N23" t="n">
-        <v>717.9467189373418</v>
+        <v>714.1376287927028</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4315151510192359</v>
+        <v>0.2979538218110476</v>
       </c>
       <c r="P23" t="n">
-        <v>718.7511822325067</v>
+        <v>712.1411665170426</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6126698244149981</v>
+        <v>0.4850538610500793</v>
       </c>
       <c r="R23" t="n">
-        <v>717.0019091592519</v>
+        <v>709.2825467810392</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4196525018424448</v>
+        <v>0.6028826918816459</v>
       </c>
       <c r="T23" t="n">
-        <v>721.0145860808216</v>
+        <v>708.3432441807263</v>
       </c>
       <c r="U23" t="n">
-        <v>0.8901740483596138</v>
+        <v>0.6016034495310358</v>
       </c>
       <c r="V23" t="n">
-        <v>718.8666897072462</v>
+        <v>709.4606871026198</v>
       </c>
       <c r="W23" t="n">
-        <v>0.4147964146616236</v>
+        <v>0.6878881861065211</v>
       </c>
       <c r="X23" t="n">
-        <v>718.1162423276882</v>
+        <v>705.3349862145558</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.5932582491197633</v>
+        <v>0.7527592470278995</v>
       </c>
       <c r="Z23" t="n">
-        <v>719.4807717423906</v>
+        <v>710.1890011346402</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3828757827129475</v>
+        <v>0.5121958155985806</v>
       </c>
       <c r="AB23" t="n">
-        <v>717.9442743485947</v>
+        <v>709.448847678976</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.4904053526346405</v>
+        <v>0.7387974400693423</v>
       </c>
       <c r="AD23" t="n">
-        <v>716.4103504819174</v>
+        <v>710.7977143838287</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.3051157541947906</v>
+        <v>0.441012904637763</v>
       </c>
       <c r="AF23" t="n">
-        <v>718.7154437477516</v>
+        <v>709.2757459390242</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.3915208639167334</v>
+        <v>0.6554059647291968</v>
       </c>
       <c r="AH23" t="n">
-        <v>720.6731904328237</v>
+        <v>707.7498393815371</v>
       </c>
       <c r="AI23" t="n">
-        <v>0.2955169220698893</v>
+        <v>0.3685997013603569</v>
       </c>
       <c r="AJ23" t="n">
-        <v>718.5310563417564</v>
+        <v>708.7134227244669</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.4152267532207936</v>
+        <v>0.8658079762642132</v>
       </c>
       <c r="AL23" t="n">
-        <v>718.4262301859728</v>
+        <v>710.0398725087103</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.9416061735974444</v>
+        <v>0.5469935013354515</v>
       </c>
       <c r="AN23" t="n">
-        <v>721.4346199276391</v>
+        <v>707.333997728468</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.5342823603926686</v>
+        <v>0.9253376423340832</v>
       </c>
       <c r="AP23" t="n">
-        <v>704.0813934649592</v>
+        <v>709.860410937619</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5284643357676486</v>
+        <v>0.4786545851978902</v>
       </c>
       <c r="AR23" t="n">
-        <v>715.3524997029498</v>
+        <v>711.2997614725674</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.8147315774758739</v>
       </c>
       <c r="AT23" t="n">
-        <v>717.3476299180508</v>
+        <v>712.7386632554811</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.5780619886726285</v>
+        <v>0.6710751692784289</v>
       </c>
       <c r="AV23" t="n">
-        <v>716.7870499243237</v>
+        <v>666.701860735605</v>
       </c>
       <c r="AW23" t="n">
-        <v>0.634204487247471</v>
+        <v>0.5876481947786855</v>
       </c>
       <c r="AX23" t="n">
-        <v>715.2934113807922</v>
+        <v>708.6828754339095</v>
       </c>
       <c r="AY23" t="n">
-        <v>0.5734097499083578</v>
+        <v>0.7098401343190912</v>
       </c>
       <c r="AZ23" t="n">
-        <v>720.0613051765355</v>
+        <v>708.1276261823989</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.4787964621328094</v>
+        <v>0.8091225085280315</v>
       </c>
       <c r="BB23" t="n">
-        <v>717.3998008572386</v>
+        <v>706.6542285708585</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.4703974130676763</v>
+        <v>0.7818255687666226</v>
       </c>
       <c r="BD23" t="n">
-        <v>723.1117952111081</v>
+        <v>711.3794784285355</v>
       </c>
       <c r="BE23" t="n">
-        <v>0.4489989504204745</v>
+        <v>0.6145200635452839</v>
       </c>
       <c r="BF23" t="n">
-        <v>719.0741135578392</v>
+        <v>714.2265598187879</v>
       </c>
       <c r="BG23" t="n">
-        <v>0.9320252408509435</v>
+        <v>0.5650529592865972</v>
       </c>
       <c r="BH23" t="n">
-        <v>714.7207227515581</v>
+        <v>706.0764592078278</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.5945251537721075</v>
+        <v>0.6812205121387556</v>
       </c>
       <c r="BJ23" t="n">
-        <v>718.3969247802327</v>
+        <v>715.0866292668886</v>
       </c>
       <c r="BK23" t="n">
-        <v>0.5345778216504828</v>
+        <v>0.7728155548816046</v>
       </c>
       <c r="BL23" t="n">
-        <v>717.460148533697</v>
+        <v>711.5007345462059</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.6892214888119456</v>
+        <v>0.7905075555349823</v>
       </c>
       <c r="BN23" t="n">
-        <v>722.647889443921</v>
+        <v>710.4107450842329</v>
       </c>
       <c r="BO23" t="n">
-        <v>0.4576185396887882</v>
+        <v>0.8150309226490472</v>
       </c>
       <c r="BP23" t="n">
-        <v>723.0196734708169</v>
+        <v>709.725107058528</v>
       </c>
       <c r="BQ23" t="n">
-        <v>0.4894620884888546</v>
+        <v>0.6369624658319234</v>
       </c>
       <c r="BR23" t="n">
-        <v>720.8038326079264</v>
+        <v>708.7894989132587</v>
       </c>
       <c r="BS23" t="n">
-        <v>0.8103582360400424</v>
+        <v>0.6623394651375928</v>
       </c>
       <c r="BT23" t="n">
-        <v>720.6095399192793</v>
+        <v>713.9460605019104</v>
       </c>
       <c r="BU23" t="n">
-        <v>0.9781529511145778</v>
+        <v>0.5791018062515861</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>713.2465875109968</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0.8104031049939698</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>714.3143753911935</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0.5484445501242553</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>708.7334789850047</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>0.911453473631794</v>
+      </c>
+      <c r="CB23" t="n">
+        <v>711.1805850637708</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0.8551084726344077</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>707.7523031483048</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0.7223129577241305</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>709.8211305854719</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0.8477564235627868</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>712.1087720844678</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0.8199500924372319</v>
       </c>
     </row>
-    <row r="24" spans="1:73">
+    <row r="24" spans="1:87">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>719.3435881185151</v>
+        <v>720.1260931764546</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3627560663269142</v>
+        <v>0.6927841154439771</v>
       </c>
       <c r="D24" t="n">
-        <v>721.1606804372116</v>
+        <v>710.6652568924538</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3062894613100266</v>
+        <v>0.4932466991905318</v>
       </c>
       <c r="F24" t="n">
-        <v>727.9637622669554</v>
+        <v>719.2193054197337</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3171958539604314</v>
+        <v>0.7834720287029825</v>
       </c>
       <c r="H24" t="n">
-        <v>724.8794391451385</v>
+        <v>712.471861077552</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4181598403406909</v>
+        <v>0.4077978609914054</v>
       </c>
       <c r="J24" t="n">
-        <v>727.2210821605289</v>
+        <v>719.2231954706739</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2282433534426258</v>
+        <v>0.4723375441523912</v>
       </c>
       <c r="L24" t="n">
-        <v>725.1868532390804</v>
+        <v>716.1483160357127</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4061210089719601</v>
+        <v>0.6447809298168681</v>
       </c>
       <c r="N24" t="n">
-        <v>722.309057353716</v>
+        <v>718.4855928259573</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3596136881666737</v>
+        <v>0.2761356360600207</v>
       </c>
       <c r="P24" t="n">
-        <v>723.1164804779421</v>
+        <v>716.4813573935626</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6406956747645327</v>
+        <v>0.4498714652956298</v>
       </c>
       <c r="R24" t="n">
-        <v>721.3607376523375</v>
+        <v>713.6113184599945</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3492520431036736</v>
+        <v>0.5406461505500315</v>
       </c>
       <c r="T24" t="n">
-        <v>725.3880709252163</v>
+        <v>712.6681887924061</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9385300861171996</v>
+        <v>0.4693733813695889</v>
       </c>
       <c r="V24" t="n">
-        <v>723.2324107709275</v>
+        <v>713.7901803992853</v>
       </c>
       <c r="W24" t="n">
-        <v>0.401724100930652</v>
+        <v>0.7031626321454738</v>
       </c>
       <c r="X24" t="n">
-        <v>722.4792066580944</v>
+        <v>709.6474226830536</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.4724364386736538</v>
+        <v>0.7913777627865853</v>
       </c>
       <c r="Z24" t="n">
-        <v>723.848731563052</v>
+        <v>714.5214308429549</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3370271150539425</v>
+        <v>0.4601073466885549</v>
       </c>
       <c r="AB24" t="n">
-        <v>722.3066037304868</v>
+        <v>713.7782930574523</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.4397410977869298</v>
+        <v>0.6898297411092712</v>
       </c>
       <c r="AD24" t="n">
-        <v>720.7669627687758</v>
+        <v>715.1325812300353</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.2616145994482981</v>
+        <v>0.4111075624885658</v>
       </c>
       <c r="AF24" t="n">
-        <v>723.0806110615273</v>
+        <v>713.6044900424091</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.3490907491565888</v>
+        <v>0.5659978381848502</v>
       </c>
       <c r="AH24" t="n">
-        <v>725.0454537577599</v>
+        <v>712.0723470473762</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.289568302388376</v>
+        <v>0.3396869820165576</v>
       </c>
       <c r="AJ24" t="n">
-        <v>722.8955473070257</v>
+        <v>713.0398800216724</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.3613475345937093</v>
+        <v>0.8188659523598971</v>
       </c>
       <c r="AL24" t="n">
-        <v>722.7903360228572</v>
+        <v>714.3717027743037</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.9724451908802115</v>
+        <v>0.4616207550160007</v>
       </c>
       <c r="AN24" t="n">
-        <v>725.8096012022633</v>
+        <v>711.6547887713084</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.4350844165490111</v>
+        <v>0.8678247196828947</v>
       </c>
       <c r="AP24" t="n">
-        <v>708.3885037260519</v>
+        <v>714.1915185958803</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.4924112861535241</v>
+        <v>0.4764249351972454</v>
       </c>
       <c r="AR24" t="n">
-        <v>719.7051130710031</v>
+        <v>715.636626723057</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.9581054017405214</v>
+        <v>0.7180032467674746</v>
       </c>
       <c r="AT24" t="n">
-        <v>721.7077469801129</v>
+        <v>717.0811978136242</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.4998282415345974</v>
+        <v>0.6049440393533562</v>
       </c>
       <c r="AV24" t="n">
-        <v>721.1450751301769</v>
+        <v>670.8174699670426</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.5888260253085061</v>
+        <v>0.5537115327497306</v>
       </c>
       <c r="AX24" t="n">
-        <v>719.6458000245019</v>
+        <v>713.0092081225145</v>
       </c>
       <c r="AY24" t="n">
-        <v>0.5162462868730465</v>
+        <v>0.6500660786090344</v>
       </c>
       <c r="AZ24" t="n">
-        <v>724.4313673697194</v>
+        <v>712.4516870334654</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.4249103531425838</v>
+        <v>0.7015789936857592</v>
       </c>
       <c r="BB24" t="n">
-        <v>721.7601119461085</v>
+        <v>710.972197689984</v>
       </c>
       <c r="BC24" t="n">
-        <v>0.4058002055296704</v>
+        <v>0.6775684861850428</v>
       </c>
       <c r="BD24" t="n">
-        <v>727.4926808236272</v>
+        <v>715.7166600243052</v>
       </c>
       <c r="BE24" t="n">
-        <v>0.4879152908481942</v>
+        <v>0.5451477867610609</v>
       </c>
       <c r="BF24" t="n">
-        <v>723.4405925399737</v>
+        <v>718.5748662595399</v>
       </c>
       <c r="BG24" t="n">
-        <v>0.9997153036209598</v>
+        <v>0.4846173854747394</v>
       </c>
       <c r="BH24" t="n">
-        <v>719.0709258959487</v>
+        <v>710.3920143978037</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.5887988419216756</v>
+        <v>0.6367292446781609</v>
       </c>
       <c r="BJ24" t="n">
-        <v>722.7609228698141</v>
+        <v>719.4382303460654</v>
       </c>
       <c r="BK24" t="n">
-        <v>0.597804124638451</v>
+        <v>0.691328895675969</v>
       </c>
       <c r="BL24" t="n">
-        <v>721.820683920359</v>
+        <v>715.8383968207111</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.667777615399838</v>
+        <v>0.7933748913473951</v>
       </c>
       <c r="BN24" t="n">
-        <v>727.027153235074</v>
+        <v>714.7440643981313</v>
       </c>
       <c r="BO24" t="n">
-        <v>0.4298113451632274</v>
+        <v>0.7418028629277906</v>
       </c>
       <c r="BP24" t="n">
-        <v>727.4002377117563</v>
+        <v>714.0556690176475</v>
       </c>
       <c r="BQ24" t="n">
-        <v>0.487417745923009</v>
+        <v>0.5879881878318773</v>
       </c>
       <c r="BR24" t="n">
-        <v>725.1765639291407</v>
+        <v>713.1162663696726</v>
       </c>
       <c r="BS24" t="n">
-        <v>0.8139082863920305</v>
+        <v>0.676981988446332</v>
       </c>
       <c r="BT24" t="n">
-        <v>724.9815749805351</v>
+        <v>718.2932858366743</v>
       </c>
       <c r="BU24" t="n">
-        <v>0.973607930289808</v>
+        <v>0.5396728349536863</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>717.5911027368302</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>0.7613888298837441</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>718.6630196239096</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>0.5097917261879922</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>713.0600180743704</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>0.8389493100710348</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>715.5169768847852</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>0.7242562128138518</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>712.0748209629234</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0.6951949326168771</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>714.1520798998771</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0.8071790434916681</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>716.4488354692537</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0.825242430792644</v>
       </c>
     </row>
-    <row r="25" spans="1:73">
+    <row r="25" spans="1:87">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>723.7110491382189</v>
+        <v>724.4963891486823</v>
       </c>
       <c r="C25" t="n">
+        <v>0.5885098440359776</v>
+      </c>
+      <c r="D25" t="n">
+        <v>714.9995947325077</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.4137958176846342</v>
+      </c>
+      <c r="F25" t="n">
+        <v>723.5863138865258</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.6583225775052085</v>
+      </c>
+      <c r="H25" t="n">
+        <v>716.8133509387264</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3596559942089547</v>
+      </c>
+      <c r="J25" t="n">
+        <v>723.5902181118936</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.4067702084085361</v>
+      </c>
+      <c r="L25" t="n">
+        <v>720.5039420553763</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.5161820263761256</v>
+      </c>
+      <c r="N25" t="n">
+        <v>722.8499168144925</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.2373596982091986</v>
+      </c>
+      <c r="P25" t="n">
+        <v>720.8382364570858</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.41700745908793</v>
+      </c>
+      <c r="R25" t="n">
+        <v>717.9572493649497</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.4315151510192359</v>
+      </c>
+      <c r="T25" t="n">
+        <v>717.0104476866213</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.4196525018424448</v>
+      </c>
+      <c r="V25" t="n">
+        <v>718.1368035309932</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.6146256042262195</v>
+      </c>
+      <c r="X25" t="n">
+        <v>713.9776709828959</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.7717115495352309</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>718.8708702754057</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.4147964146616236</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>718.1248702241745</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.5932582491197633</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>719.4843574772289</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3828757827129475</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>717.9503944939481</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.4904053526346405</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>716.4122670253595</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3051157541947906</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>717.3835904769866</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.7205806550812897</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>718.720567351011</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3915208639167334</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>715.9930608564825</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.8217117944210696</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>718.5396901578722</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.4152267532207936</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>719.9903186745061</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.6104499110852853</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>721.4403222632079</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.5342823603926686</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>674.9574347700595</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.5284643357676486</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>717.3527990124149</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.5780619886726285</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>716.7930977803163</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.634204487247471</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>715.307760263801</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.5734097499083578</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>720.0706551931893</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>0.4787964621328094</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>722.9395180486358</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>0.4489989504204745</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>714.7252586465116</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>0.5945251537721075</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>723.8060355675404</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0.5826635564914651</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>720.1928527016636</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0.71411378049345</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>719.094356883455</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>0.7383563754918647</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>718.4033171949983</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0.5345778216504828</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>717.4602744250868</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0.6892214888119456</v>
+      </c>
+      <c r="BT25" t="n">
+        <v>722.6569025958473</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>0.4576185396887882</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>721.9521243368638</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>0.8131429166734749</v>
+      </c>
+      <c r="BX25" t="n">
+        <v>723.0279947824006</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>0.4894620884888546</v>
+      </c>
+      <c r="BZ25" t="n">
+        <v>717.4038070107491</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>0.7939597170752295</v>
+      </c>
+      <c r="CB25" t="n">
+        <v>719.8702150346426</v>
+      </c>
+      <c r="CC25" t="n">
+        <v>0.6599201166396879</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>716.4147506825583</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0.6425192384166328</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>718.5000995958859</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0.7097510745271627</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>720.805592371879</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0.8103582360400424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:87">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>728.8820640353865</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5447904861441949</v>
+      </c>
+      <c r="D26" t="n">
+        <v>719.3508637992032</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3627560663269142</v>
+      </c>
+      <c r="F26" t="n">
+        <v>727.9688494916335</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5828921576540577</v>
+      </c>
+      <c r="H26" t="n">
+        <v>721.1714745768744</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3062894613100266</v>
+      </c>
+      <c r="J26" t="n">
+        <v>727.9727672553154</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3171958539604314</v>
+      </c>
+      <c r="L26" t="n">
+        <v>724.8755980598166</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.4181598403406909</v>
+      </c>
+      <c r="N26" t="n">
+        <v>727.2298879583085</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.2282433534426258</v>
+      </c>
+      <c r="P26" t="n">
+        <v>725.2110909076124</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.4061210089719601</v>
+      </c>
+      <c r="R26" t="n">
+        <v>722.3196266959045</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.3596136881666737</v>
+      </c>
+      <c r="T26" t="n">
+        <v>721.3693080633719</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.3492520431036736</v>
+      </c>
+      <c r="V26" t="n">
+        <v>722.4998436977434</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.6314958687105607</v>
+      </c>
+      <c r="X26" t="n">
+        <v>718.3250183140829</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.7197170580945288</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>723.2366066319923</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.401724100930652</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>722.4878663791426</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.4724364386736538</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>723.8523303254098</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.3370271150539425</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>722.3127464936412</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.4397410977869298</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>720.7688865154868</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.2616145994482981</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>721.7438412904094</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.6604913247559895</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>723.0857534388323</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.3490907491565888</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>720.3481011839903</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.7715249707391147</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>722.9042128235945</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.3613475345937093</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>724.3601245269145</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.592687674027876</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>725.8153238042323</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.4350844165490111</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>679.121042344656</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0.4924112861535241</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>721.7129353036112</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.4998282415345974</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>721.1511456229514</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0.5888260253085061</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>719.66020349231</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.5162462868730465</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>724.4407511351878</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0.4249103531425838</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>727.3198023860757</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>0.4879152908481942</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>719.0754791539515</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0.5887988419216756</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>728.1893321313134</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0.5769526019783551</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>724.5633893890634</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0.7543787642662799</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>723.4609097402041</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>0.6285715535981802</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>722.7673387905802</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0.597804124638451</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>721.8208102795013</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0.667777615399838</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>727.0361979794296</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0.4298113451632274</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>726.3289395110978</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>0.7528536477946017</v>
+      </c>
+      <c r="BX26" t="n">
+        <v>727.4085880666667</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>0.487417745923009</v>
+      </c>
+      <c r="BZ26" t="n">
+        <v>721.7641329941408</v>
+      </c>
+      <c r="CA26" t="n">
+        <v>0.7707581855528617</v>
+      </c>
+      <c r="CB26" t="n">
+        <v>724.2395867133429</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0.6519256796305871</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>720.7713795072099</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0.6169935564816399</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>722.8644768734985</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0.6228934994667443</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>725.1783299923437</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0.8139082863920305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:87">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>733.2824050365672</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5026751341295271</v>
+      </c>
+      <c r="D27" t="n">
+        <v>723.7183512925403</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2960362013327037</v>
       </c>
-      <c r="D25" t="n">
-        <v>725.5346865711884</v>
-      </c>
-      <c r="E25" t="n">
+      <c r="F27" t="n">
+        <v>732.3661994350567</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5331914776736957</v>
+      </c>
+      <c r="H27" t="n">
+        <v>725.5455191919958</v>
+      </c>
+      <c r="I27" t="n">
         <v>0.2725523818654488</v>
       </c>
-      <c r="F25" t="n">
-        <v>732.3610954559382</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="J27" t="n">
+        <v>732.3701301009389</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.275003805576114</v>
       </c>
-      <c r="H25" t="n">
-        <v>729.2664254557701</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="L27" t="n">
+        <v>729.2625712490335</v>
+      </c>
+      <c r="M27" t="n">
         <v>0.3226054618809884</v>
       </c>
-      <c r="J25" t="n">
-        <v>731.6159584002314</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="N27" t="n">
+        <v>731.6247934574053</v>
+      </c>
+      <c r="O27" t="n">
         <v>0.1977928357130651</v>
       </c>
-      <c r="L25" t="n">
-        <v>729.5748877897081</v>
-      </c>
-      <c r="M25" t="n">
+      <c r="P27" t="n">
+        <v>729.5992079451422</v>
+      </c>
+      <c r="Q27" t="n">
         <v>0.346509962288563</v>
       </c>
-      <c r="N25" t="n">
-        <v>726.687131119942</v>
-      </c>
-      <c r="O25" t="n">
+      <c r="R27" t="n">
+        <v>726.697737652859</v>
+      </c>
+      <c r="S27" t="n">
         <v>0.3177468970698149</v>
       </c>
-      <c r="P25" t="n">
-        <v>727.4973824261649</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.7265884781029907</v>
-      </c>
-      <c r="R25" t="n">
-        <v>725.7354562268865</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="T27" t="n">
+        <v>725.7440571226581</v>
+      </c>
+      <c r="U27" t="n">
         <v>0.3327410054391682</v>
       </c>
-      <c r="T25" t="n">
-        <v>729.7767895609348</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.9079204305881011</v>
-      </c>
-      <c r="V25" t="n">
-        <v>727.6137166425709</v>
-      </c>
-      <c r="W25" t="n">
+      <c r="V27" t="n">
+        <v>726.8785880995357</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.6221067616476308</v>
+      </c>
+      <c r="X27" t="n">
+        <v>722.6887518766143</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.7205327641116998</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>727.6179271127151</v>
+      </c>
+      <c r="AA27" t="n">
         <v>0.3843586508243384</v>
       </c>
-      <c r="X25" t="n">
-        <v>726.8578785889442</v>
-      </c>
-      <c r="Y25" t="n">
+      <c r="AB27" t="n">
+        <v>726.8665687223566</v>
+      </c>
+      <c r="AC27" t="n">
         <v>0.375173831148022</v>
       </c>
-      <c r="Z25" t="n">
-        <v>728.2321757709204</v>
-      </c>
-      <c r="AA25" t="n">
+      <c r="AD27" t="n">
+        <v>728.2357869745776</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0.2990076302087857</v>
       </c>
-      <c r="AB25" t="n">
-        <v>726.6846688624172</v>
-      </c>
-      <c r="AC25" t="n">
+      <c r="AF27" t="n">
+        <v>726.6908332414885</v>
+      </c>
+      <c r="AG27" t="n">
         <v>0.3766909251822257</v>
       </c>
-      <c r="AD25" t="n">
-        <v>725.1395620819437</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AH27" t="n">
+        <v>725.1414927177582</v>
+      </c>
+      <c r="AI27" t="n">
         <v>0.2500377904153916</v>
       </c>
-      <c r="AF25" t="n">
-        <v>727.4613879246065</v>
-      </c>
-      <c r="AG25" t="n">
+      <c r="AJ27" t="n">
+        <v>726.1199196619409</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.5906961172507861</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>727.4665482377676</v>
+      </c>
+      <c r="AM27" t="n">
         <v>0.2940978662338424</v>
       </c>
-      <c r="AH25" t="n">
-        <v>729.4330066235003</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0.2658800841824427</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>727.2756779886861</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AN27" t="n">
+        <v>724.7191969538317</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.6643445779253271</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>727.2843737930474</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>0.355664236294701</v>
       </c>
-      <c r="AL25" t="n">
-        <v>727.1700987285714</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0.8840348218665616</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>730.1997476990505</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="AR27" t="n">
+        <v>728.7453314802824</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.5297499476327827</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>730.2054896366974</v>
+      </c>
+      <c r="AU27" t="n">
         <v>0.3971987789268954</v>
       </c>
-      <c r="AP25" t="n">
-        <v>712.713633595184</v>
-      </c>
-      <c r="AQ25" t="n">
+      <c r="AV27" t="n">
+        <v>683.3075798908319</v>
+      </c>
+      <c r="AW27" t="n">
         <v>0.4919753538746123</v>
       </c>
-      <c r="AR25" t="n">
-        <v>724.0738869528777</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0.915303104064074</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>726.0836974901054</v>
-      </c>
-      <c r="AU25" t="n">
+      <c r="AX27" t="n">
+        <v>726.0889041961029</v>
+      </c>
+      <c r="AY27" t="n">
         <v>0.4716827502005193</v>
       </c>
-      <c r="AV25" t="n">
-        <v>725.5190256228659</v>
-      </c>
-      <c r="AW25" t="n">
+      <c r="AZ27" t="n">
+        <v>725.5251177613708</v>
+      </c>
+      <c r="BA27" t="n">
         <v>0.5415989077659094</v>
       </c>
-      <c r="AX25" t="n">
-        <v>724.0143588773376</v>
-      </c>
-      <c r="AY25" t="n">
+      <c r="BB27" t="n">
+        <v>724.0288145755105</v>
+      </c>
+      <c r="BC27" t="n">
         <v>0.4343040433682774</v>
       </c>
-      <c r="AZ25" t="n">
-        <v>728.8168190638645</v>
-      </c>
-      <c r="BA25" t="n">
+      <c r="BD27" t="n">
+        <v>728.8262350503007</v>
+      </c>
+      <c r="BE27" t="n">
         <v>0.379872893927834</v>
       </c>
-      <c r="BB25" t="n">
-        <v>726.136247938121</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.4379137670187071</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>731.8884581025968</v>
-      </c>
-      <c r="BE25" t="n">
+      <c r="BF27" t="n">
+        <v>731.7150064718595</v>
+      </c>
+      <c r="BG27" t="n">
         <v>0.5318984823546842</v>
       </c>
-      <c r="BF25" t="n">
-        <v>727.822622404175</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>723.437393243729</v>
-      </c>
-      <c r="BI25" t="n">
+      <c r="BH27" t="n">
+        <v>723.4419631201235</v>
+      </c>
+      <c r="BI27" t="n">
         <v>0.576465596161685</v>
       </c>
-      <c r="BJ25" t="n">
-        <v>727.1405826236722</v>
-      </c>
-      <c r="BK25" t="n">
+      <c r="BJ27" t="n">
+        <v>732.5874072373846</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>0.5278181057125904</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>728.9492940829108</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0.711740653304325</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>727.8430101683787</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0.6420734479980852</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>727.1470210043933</v>
+      </c>
+      <c r="BQ27" t="n">
         <v>0.6004828181892331</v>
       </c>
-      <c r="BL25" t="n">
-        <v>726.1970343266388</v>
-      </c>
-      <c r="BM25" t="n">
+      <c r="BR27" t="n">
+        <v>726.197161132916</v>
+      </c>
+      <c r="BS27" t="n">
         <v>0.5988444226744944</v>
       </c>
-      <c r="BN25" t="n">
-        <v>731.4213843202663</v>
-      </c>
-      <c r="BO25" t="n">
+      <c r="BT27" t="n">
+        <v>731.430459187421</v>
+      </c>
+      <c r="BU27" t="n">
         <v>0.4144542379199899</v>
       </c>
-      <c r="BP25" t="n">
-        <v>731.7957086348811</v>
-      </c>
-      <c r="BQ25" t="n">
+      <c r="BV27" t="n">
+        <v>730.7208354595322</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0.7573359713906537</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>731.8040866767077</v>
+      </c>
+      <c r="BY27" t="n">
         <v>0.4688619679252093</v>
       </c>
-      <c r="BR25" t="n">
-        <v>729.5645634555709</v>
-      </c>
-      <c r="BS25" t="n">
+      <c r="BZ27" t="n">
+        <v>726.1402832245453</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>0.7000766064816432</v>
+      </c>
+      <c r="CB27" t="n">
+        <v>728.624379120886</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0.5383547836987742</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>725.143994636878</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0.5775999333881464</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>727.2444989327148</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0.6140807608062361</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>729.5663355306478</v>
+      </c>
+      <c r="CI27" t="n">
         <v>0.8191295815686529</v>
       </c>
-      <c r="BT25" t="n">
-        <v>729.3689099784108</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>0.9943381583752136</v>
+    </row>
+    <row r="28" spans="1:87">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>737.6966993522242</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4908995218465937</v>
+      </c>
+      <c r="D28" t="n">
+        <v>728.1013444125191</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.2482913483113235</v>
+      </c>
+      <c r="F28" t="n">
+        <v>736.7776509167954</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.4964317635566602</v>
+      </c>
+      <c r="H28" t="n">
+        <v>729.9347719840906</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.251054804672445</v>
+      </c>
+      <c r="J28" t="n">
+        <v>736.7815938487646</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.2342757905863122</v>
+      </c>
+      <c r="L28" t="n">
+        <v>733.6641488230271</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.2410433746395846</v>
+      </c>
+      <c r="N28" t="n">
+        <v>736.0339205117828</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.2117076964008765</v>
+      </c>
+      <c r="P28" t="n">
+        <v>734.0018747696754</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.3701541875231346</v>
+      </c>
+      <c r="R28" t="n">
+        <v>731.0908694358131</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.3173918741656723</v>
+      </c>
+      <c r="T28" t="n">
+        <v>730.1339820644797</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.3037369897712289</v>
+      </c>
+      <c r="V28" t="n">
+        <v>731.2723239363704</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.5606731330725193</v>
+      </c>
+      <c r="X28" t="n">
+        <v>727.0681588704904</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.7537160554038892</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>732.0141189175737</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.375275778094469</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>731.2602644538166</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.3201672249344704</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>732.6340146247328</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.3027996209063229</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>731.0839419374897</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.3483651785181411</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>729.5293728321737</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.2386907209517583</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>730.5111127915812</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.5424431806586725</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>731.8622389478169</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.2756305895227512</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>729.1056353660068</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.6819137815506311</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>731.6794602662306</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.3112239741175863</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>733.1452267346098</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.4664351882283754</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>734.610106960603</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.3341740368733978</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>687.5163346085872</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0.4703311830497692</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>730.4799928898905</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.4807878724623897</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>729.9143013955743</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0.5047824433060936</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>728.412880713403</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0.3728143655828158</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>733.2263941385282</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0.3334340528808281</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>736.1244175059873</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0.6038419075490576</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>727.8239977450276</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>0.5361965947686006</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>736.9995480857536</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0.4843155365462715</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>733.3498539832055</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0.7006092903763366</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>732.2399453679784</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>0.6554909058530621</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>731.5416510364377</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0.5921148758446599</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>730.588614185331</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0.6734788354683011</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>735.8389734198216</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0.3820677534088966</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>735.1270993821669</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>0.7622513964227361</v>
+      </c>
+      <c r="BX28" t="n">
+        <v>736.2137778125236</v>
+      </c>
+      <c r="BY28" t="n">
+        <v>0.4767622630745518</v>
+      </c>
+      <c r="BZ28" t="n">
+        <v>730.5315449019628</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>0.6293524581328727</v>
+      </c>
+      <c r="CB28" t="n">
+        <v>733.0238794572721</v>
+      </c>
+      <c r="CC28" t="n">
+        <v>0.4960342267611459</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>729.5318832715625</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0.532498145832119</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>731.6394529735348</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0.5211086608926786</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>733.9688961867912</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0.7593726443968829</v>
+      </c>
+    </row>
+    <row r="29" spans="1:87">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>742.1242341823577</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.428850511433129</v>
+      </c>
+      <c r="D29" t="n">
+        <v>732.4991303591394</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.2291293131465579</v>
+      </c>
+      <c r="F29" t="n">
+        <v>741.2024911368497</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5090376262439475</v>
+      </c>
+      <c r="H29" t="n">
+        <v>734.3385201531589</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.2553170621123104</v>
+      </c>
+      <c r="J29" t="n">
+        <v>741.2064456987921</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.2193702368204591</v>
+      </c>
+      <c r="L29" t="n">
+        <v>738.0796179817971</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1920961699517454</v>
+      </c>
+      <c r="N29" t="n">
+        <v>740.4565563214411</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1884623204926597</v>
+      </c>
+      <c r="P29" t="n">
+        <v>738.4183785812119</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.3845193892988492</v>
+      </c>
+      <c r="R29" t="n">
+        <v>735.498309244767</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.2623009998260514</v>
+      </c>
+      <c r="T29" t="n">
+        <v>734.5383700888368</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.2647703393486117</v>
+      </c>
+      <c r="V29" t="n">
+        <v>735.6803384082473</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.5934261542357777</v>
+      </c>
+      <c r="X29" t="n">
+        <v>731.462526495711</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.6829582618262734</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>736.4244692465684</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.3444212728912198</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>735.6682407735225</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.2700022929333444</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>737.0463004758751</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.2820635652787813</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>735.4913597816452</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.3281169564795927</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>733.9318140587334</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.2417562129677088</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>734.9167078793303</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.4852258957316067</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>736.2721127689802</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.2233640778792903</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>733.5067036205155</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.6100433909558846</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>736.0887594431445</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.3146254940807036</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>737.5590974898964</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0.415023234392159</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>739.0284629759494</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0.3238767064935333</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>691.7465936979219</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0.454551144829784</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>734.8854885849736</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.4970161620496444</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>734.3179837255622</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0.465070165422967</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>732.8116891059871</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.3370109700161377</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>737.6405155998701</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0.334928390339775</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>740.547322688459</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>0.6667093703131691</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>732.2208702286638</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0.5242469835555551</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>741.4250418764208</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0.4659852510946316</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>737.7643562899476</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0.7537485148667623</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>736.6510025390036</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>0.6592685945900489</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>735.9505160867132</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0.6128021482753356</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>734.9944566367463</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0.6283482409147496</v>
+      </c>
+      <c r="BT29" t="n">
+        <v>740.2610278766314</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>0.3377812441289064</v>
+      </c>
+      <c r="BV29" t="n">
+        <v>739.547018479002</v>
+      </c>
+      <c r="BW29" t="n">
+        <v>0.768826358862249</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>740.6369486741146</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0.4183488558835655</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>734.9372052263932</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>0.5399562465556688</v>
+      </c>
+      <c r="CB29" t="n">
+        <v>737.4373749225009</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0.4744663983826629</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>733.9343326112636</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0.5327719306515609</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>736.0486261959586</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0.5175044744553977</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>738.385299160774</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0.7868399702116059</v>
       </c>
     </row>
   </sheetData>
